--- a/Array Disposition.xlsx
+++ b/Array Disposition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\ProjetThreeJsRPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D3B039-A617-4A61-9D88-A4CBDA27C4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF70C9B-D17C-4988-B92E-A4AE2970D734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CFCBE3DC-0C8F-43AA-BA81-4CE92429DD23}"/>
+    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="11385" xr2:uid="{CFCBE3DC-0C8F-43AA-BA81-4CE92429DD23}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -411,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440A022F-0321-49D7-B8D3-482824E05F51}">
   <dimension ref="A1:BF40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AJ16" sqref="AJ16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AG38" sqref="AG38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7030,7 +7030,7 @@
         <v>1</v>
       </c>
       <c r="AG38" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AH38" s="2">
         <v>1</v>

--- a/Array Disposition.xlsx
+++ b/Array Disposition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\ProjetThreeJsRPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F547B4DB-6FBE-4E77-AAE5-0597D931B874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940448E9-5F1A-4D2F-972A-6E8852E2ED59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CFCBE3DC-0C8F-43AA-BA81-4CE92429DD23}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2274" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3093" uniqueCount="4">
   <si>
     <t>.</t>
   </si>
@@ -409,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440A022F-0321-49D7-B8D3-482824E05F51}">
-  <dimension ref="H1:BS51"/>
+  <dimension ref="A1:CP51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BI21" sqref="BI21"/>
+      <selection activeCell="CM3" sqref="CM3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,7 +420,28 @@
     <col min="1" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
@@ -613,8 +634,98 @@
       <c r="BS1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="BT1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP1" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H2" s="2" t="s">
         <v>0</v>
       </c>
@@ -807,8 +918,44 @@
       <c r="BS2" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="BT2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX2" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1001,8 +1148,44 @@
       <c r="BS3" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="BT3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX3" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1195,8 +1378,44 @@
       <c r="BS4" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="BT4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX4" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1287,8 +1506,8 @@
       <c r="AK5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AL5" s="2">
-        <v>3</v>
+      <c r="AL5" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AM5" s="2" t="s">
         <v>0</v>
@@ -1302,8 +1521,8 @@
       <c r="AP5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AQ5" s="2" t="s">
-        <v>0</v>
+      <c r="AQ5" s="2">
+        <v>3</v>
       </c>
       <c r="AR5" s="2" t="s">
         <v>0</v>
@@ -1389,8 +1608,44 @@
       <c r="BS5" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="BT5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX5" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1478,14 +1733,14 @@
       <c r="AJ6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AK6" s="2">
-        <v>3</v>
-      </c>
-      <c r="AL6" s="2">
-        <v>3</v>
-      </c>
-      <c r="AM6" s="2">
-        <v>3</v>
+      <c r="AK6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AN6" s="2" t="s">
         <v>0</v>
@@ -1493,14 +1748,14 @@
       <c r="AO6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AP6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="2" t="s">
-        <v>0</v>
+      <c r="AP6" s="2">
+        <v>3</v>
+      </c>
+      <c r="AQ6" s="2">
+        <v>3</v>
+      </c>
+      <c r="AR6" s="2">
+        <v>3</v>
       </c>
       <c r="AS6" s="2" t="s">
         <v>0</v>
@@ -1583,8 +1838,44 @@
       <c r="BS6" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="BT6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX6" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
@@ -1669,35 +1960,35 @@
       <c r="AI7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AJ7" s="2">
-        <v>3</v>
-      </c>
-      <c r="AK7" s="2">
-        <v>3</v>
-      </c>
-      <c r="AL7" s="2">
-        <v>3</v>
-      </c>
-      <c r="AM7" s="2">
-        <v>3</v>
-      </c>
-      <c r="AN7" s="2">
-        <v>3</v>
-      </c>
-      <c r="AO7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="2" t="s">
-        <v>0</v>
+      <c r="AJ7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>3</v>
+      </c>
+      <c r="AP7" s="2">
+        <v>3</v>
+      </c>
+      <c r="AQ7" s="2">
+        <v>3</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS7" s="2">
+        <v>3</v>
       </c>
       <c r="AT7" s="2" t="s">
         <v>0</v>
@@ -1777,8 +2068,44 @@
       <c r="BS7" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="BT7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H8" s="2" t="s">
         <v>0</v>
       </c>
@@ -1860,20 +2187,20 @@
       <c r="AH8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AI8" s="2">
-        <v>3</v>
-      </c>
-      <c r="AJ8" s="2">
-        <v>3</v>
-      </c>
-      <c r="AK8" s="2">
-        <v>3</v>
-      </c>
-      <c r="AL8" s="2">
-        <v>3</v>
-      </c>
-      <c r="AM8" s="2">
-        <v>3</v>
+      <c r="AI8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AN8" s="2">
         <v>3</v>
@@ -1881,32 +2208,32 @@
       <c r="AO8" s="2">
         <v>3</v>
       </c>
-      <c r="AP8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="2" t="s">
-        <v>0</v>
+      <c r="AP8" s="2">
+        <v>3</v>
+      </c>
+      <c r="AQ8" s="2">
+        <v>3</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS8" s="2">
+        <v>3</v>
       </c>
       <c r="AT8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV8" s="2">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="AU8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AW8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AX8" s="2">
-        <v>1</v>
+      <c r="AX8" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AY8" s="2">
         <v>1</v>
@@ -1914,20 +2241,20 @@
       <c r="AZ8" s="2">
         <v>1</v>
       </c>
-      <c r="BA8" s="2" t="s">
-        <v>0</v>
+      <c r="BA8" s="2">
+        <v>1</v>
       </c>
       <c r="BB8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BC8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE8" s="2" t="s">
-        <v>0</v>
+      <c r="BC8" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD8" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE8" s="2">
+        <v>1</v>
       </c>
       <c r="BF8" s="2" t="s">
         <v>0</v>
@@ -1971,8 +2298,44 @@
       <c r="BS8" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="BT8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX8" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H9" s="2" t="s">
         <v>0</v>
       </c>
@@ -2033,14 +2396,14 @@
       <c r="AA9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AB9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="2">
-        <v>1</v>
+      <c r="AB9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AE9" s="2" t="s">
         <v>0</v>
@@ -2048,23 +2411,23 @@
       <c r="AF9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AG9" s="2" t="s">
-        <v>0</v>
+      <c r="AG9" s="2">
+        <v>1</v>
       </c>
       <c r="AH9" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI9" s="2">
-        <v>3</v>
-      </c>
-      <c r="AJ9" s="2">
-        <v>3</v>
-      </c>
-      <c r="AK9" s="2">
-        <v>3</v>
-      </c>
-      <c r="AL9" s="2">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AM9" s="2">
         <v>3</v>
@@ -2078,29 +2441,29 @@
       <c r="AP9" s="2">
         <v>3</v>
       </c>
-      <c r="AQ9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="2" t="s">
-        <v>0</v>
+      <c r="AQ9" s="2">
+        <v>3</v>
+      </c>
+      <c r="AR9" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS9" s="2">
+        <v>3</v>
       </c>
       <c r="AT9" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AU9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV9" s="2">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="AV9" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AW9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AX9" s="2">
-        <v>1</v>
+      <c r="AX9" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AY9" s="2">
         <v>1</v>
@@ -2108,20 +2471,20 @@
       <c r="AZ9" s="2">
         <v>1</v>
       </c>
-      <c r="BA9" s="2" t="s">
-        <v>0</v>
+      <c r="BA9" s="2">
+        <v>1</v>
       </c>
       <c r="BB9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BC9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE9" s="2" t="s">
-        <v>0</v>
+      <c r="BC9" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD9" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE9" s="2">
+        <v>1</v>
       </c>
       <c r="BF9" s="2" t="s">
         <v>0</v>
@@ -2150,14 +2513,14 @@
       <c r="BN9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BO9" s="2">
-        <v>1</v>
-      </c>
-      <c r="BP9" s="2">
-        <v>1</v>
-      </c>
-      <c r="BQ9" s="2">
-        <v>1</v>
+      <c r="BO9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ9" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="BR9" s="2" t="s">
         <v>0</v>
@@ -2165,8 +2528,44 @@
       <c r="BS9" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="BT9" s="2">
+        <v>1</v>
+      </c>
+      <c r="BU9" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV9" s="2">
+        <v>1</v>
+      </c>
+      <c r="BW9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX9" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H10" s="2" t="s">
         <v>0</v>
       </c>
@@ -2227,20 +2626,20 @@
       <c r="AA10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AB10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="2">
-        <v>1</v>
+      <c r="AB10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AG10" s="2">
         <v>1</v>
@@ -2249,19 +2648,19 @@
         <v>1</v>
       </c>
       <c r="AI10" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ10" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK10" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL10" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM10" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AN10" s="2">
         <v>3</v>
@@ -2270,19 +2669,19 @@
         <v>3</v>
       </c>
       <c r="AP10" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ10" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR10" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS10" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT10" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AU10" s="2">
         <v>1</v>
@@ -2353,14 +2752,50 @@
       <c r="BQ10" s="2">
         <v>1</v>
       </c>
-      <c r="BR10" s="2" t="s">
-        <v>0</v>
+      <c r="BR10" s="2">
+        <v>1</v>
       </c>
       <c r="BS10" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT10" s="2">
+        <v>1</v>
+      </c>
+      <c r="BU10" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV10" s="2">
+        <v>1</v>
+      </c>
+      <c r="BW10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX10" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H11" s="2" t="s">
         <v>0</v>
       </c>
@@ -2421,14 +2856,14 @@
       <c r="AA11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AB11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="2">
-        <v>1</v>
+      <c r="AB11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AE11" s="2" t="s">
         <v>0</v>
@@ -2436,80 +2871,80 @@
       <c r="AF11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AG11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="2" t="s">
-        <v>0</v>
+      <c r="AG11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>1</v>
       </c>
       <c r="AI11" s="2">
         <v>1</v>
       </c>
-      <c r="AJ11" s="2">
-        <v>3</v>
-      </c>
-      <c r="AK11" s="2">
-        <v>3</v>
-      </c>
-      <c r="AL11" s="2">
-        <v>3</v>
-      </c>
-      <c r="AM11" s="2">
-        <v>3</v>
+      <c r="AJ11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AN11" s="2">
-        <v>3</v>
-      </c>
-      <c r="AO11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT11" s="2">
-        <v>3</v>
-      </c>
-      <c r="AU11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV11" s="2">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>3</v>
+      </c>
+      <c r="AP11" s="2">
+        <v>3</v>
+      </c>
+      <c r="AQ11" s="2">
+        <v>3</v>
+      </c>
+      <c r="AR11" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS11" s="2">
+        <v>3</v>
+      </c>
+      <c r="AT11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AW11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AX11" s="2">
-        <v>3</v>
+      <c r="AX11" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AY11" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AZ11" s="2">
-        <v>3</v>
-      </c>
-      <c r="BA11" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BA11" s="2">
+        <v>3</v>
       </c>
       <c r="BB11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BC11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE11" s="2" t="s">
-        <v>0</v>
+      <c r="BC11" s="2">
+        <v>3</v>
+      </c>
+      <c r="BD11" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE11" s="2">
+        <v>3</v>
       </c>
       <c r="BF11" s="2" t="s">
         <v>0</v>
@@ -2536,25 +2971,61 @@
         <v>0</v>
       </c>
       <c r="BN11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="BO11" s="2">
-        <v>1</v>
-      </c>
-      <c r="BP11" s="2">
-        <v>1</v>
-      </c>
-      <c r="BQ11" s="2">
-        <v>1</v>
-      </c>
-      <c r="BR11" s="2">
-        <v>3</v>
-      </c>
-      <c r="BS11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT11" s="2">
+        <v>1</v>
+      </c>
+      <c r="BU11" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV11" s="2">
+        <v>1</v>
+      </c>
+      <c r="BW11" s="2">
+        <v>3</v>
+      </c>
+      <c r="BX11" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H12" s="2" t="s">
         <v>0</v>
       </c>
@@ -2618,96 +3089,96 @@
       <c r="AB12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AC12" s="2">
-        <v>1</v>
+      <c r="AC12" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AD12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AE12" s="2">
+      <c r="AE12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="2">
         <v>2</v>
       </c>
-      <c r="AF12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ12" s="2">
-        <v>3</v>
-      </c>
-      <c r="AK12" s="2">
-        <v>3</v>
-      </c>
-      <c r="AL12" s="2">
-        <v>3</v>
+      <c r="AK12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AM12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AN12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="2" t="s">
-        <v>0</v>
+      <c r="AN12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>3</v>
+      </c>
+      <c r="AP12" s="2">
+        <v>3</v>
+      </c>
+      <c r="AQ12" s="2">
+        <v>3</v>
       </c>
       <c r="AR12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AS12" s="2">
+      <c r="AS12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="2">
         <v>2</v>
       </c>
-      <c r="AT12" s="2">
-        <v>3</v>
-      </c>
-      <c r="AU12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV12" s="2">
-        <v>3</v>
-      </c>
-      <c r="AW12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX12" s="2">
-        <v>3</v>
-      </c>
       <c r="AY12" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AZ12" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BA12" s="2">
+        <v>3</v>
+      </c>
+      <c r="BB12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="2">
+        <v>3</v>
+      </c>
+      <c r="BD12" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE12" s="2">
+        <v>3</v>
+      </c>
+      <c r="BF12" s="2">
         <v>2</v>
       </c>
-      <c r="BB12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF12" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="BG12" s="2" t="s">
         <v>0</v>
       </c>
@@ -2732,23 +3203,59 @@
       <c r="BN12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BO12" s="2">
-        <v>3</v>
-      </c>
-      <c r="BP12" s="2">
-        <v>3</v>
-      </c>
-      <c r="BQ12" s="2">
-        <v>3</v>
-      </c>
-      <c r="BR12" s="2">
-        <v>3</v>
-      </c>
-      <c r="BS12" s="2">
+      <c r="BO12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT12" s="2">
+        <v>3</v>
+      </c>
+      <c r="BU12" s="2">
+        <v>3</v>
+      </c>
+      <c r="BV12" s="2">
+        <v>3</v>
+      </c>
+      <c r="BW12" s="2">
+        <v>3</v>
+      </c>
+      <c r="BX12" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H13" s="2" t="s">
         <v>0</v>
       </c>
@@ -2812,8 +3319,8 @@
       <c r="AB13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AC13" s="2">
-        <v>1</v>
+      <c r="AC13" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AD13" s="2" t="s">
         <v>0</v>
@@ -2827,35 +3334,35 @@
       <c r="AG13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AH13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK13" s="2">
-        <v>3</v>
-      </c>
-      <c r="AL13" s="2">
-        <v>3</v>
+      <c r="AH13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AM13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AN13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="2" t="s">
-        <v>0</v>
+      <c r="AN13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="2">
+        <v>3</v>
+      </c>
+      <c r="AQ13" s="2">
+        <v>3</v>
       </c>
       <c r="AR13" s="2" t="s">
         <v>0</v>
@@ -2863,41 +3370,41 @@
       <c r="AS13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AT13" s="2">
-        <v>3</v>
-      </c>
-      <c r="AU13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV13" s="2">
-        <v>3</v>
+      <c r="AT13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AW13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AX13" s="2">
-        <v>3</v>
+      <c r="AX13" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AY13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AZ13" s="2">
-        <v>3</v>
-      </c>
-      <c r="BA13" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BA13" s="2">
+        <v>3</v>
       </c>
       <c r="BB13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BC13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE13" s="2" t="s">
-        <v>0</v>
+      <c r="BC13" s="2">
+        <v>3</v>
+      </c>
+      <c r="BD13" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE13" s="2">
+        <v>3</v>
       </c>
       <c r="BF13" s="2" t="s">
         <v>0</v>
@@ -2920,20 +3427,20 @@
       <c r="BL13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BM13" s="2">
-        <v>3</v>
-      </c>
-      <c r="BN13" s="2">
-        <v>3</v>
-      </c>
-      <c r="BO13" s="2">
-        <v>3</v>
-      </c>
-      <c r="BP13" s="2">
-        <v>3</v>
-      </c>
-      <c r="BQ13" s="2">
-        <v>3</v>
+      <c r="BM13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ13" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="BR13" s="2">
         <v>3</v>
@@ -2941,8 +3448,44 @@
       <c r="BS13" s="2">
         <v>3</v>
       </c>
+      <c r="BT13" s="2">
+        <v>3</v>
+      </c>
+      <c r="BU13" s="2">
+        <v>3</v>
+      </c>
+      <c r="BV13" s="2">
+        <v>3</v>
+      </c>
+      <c r="BW13" s="2">
+        <v>3</v>
+      </c>
+      <c r="BX13" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="14" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H14" s="2" t="s">
         <v>0</v>
       </c>
@@ -3006,8 +3549,8 @@
       <c r="AB14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AC14" s="2">
-        <v>1</v>
+      <c r="AC14" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AD14" s="2" t="s">
         <v>0</v>
@@ -3018,35 +3561,35 @@
       <c r="AF14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AG14" s="2">
+      <c r="AG14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="2">
         <v>2</v>
       </c>
-      <c r="AH14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK14" s="2">
-        <v>3</v>
-      </c>
-      <c r="AL14" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="AM14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AN14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AO14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP14" s="2" t="s">
-        <v>0</v>
+      <c r="AO14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="2">
+        <v>3</v>
       </c>
       <c r="AQ14" s="2" t="s">
         <v>0</v>
@@ -3054,48 +3597,48 @@
       <c r="AR14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AS14" s="2">
+      <c r="AS14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="2">
         <v>2</v>
       </c>
-      <c r="AT14" s="2">
-        <v>3</v>
-      </c>
-      <c r="AU14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV14" s="2">
-        <v>3</v>
-      </c>
-      <c r="AW14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX14" s="2">
-        <v>3</v>
-      </c>
       <c r="AY14" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AZ14" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BA14" s="2">
+        <v>3</v>
+      </c>
+      <c r="BB14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="2">
+        <v>3</v>
+      </c>
+      <c r="BD14" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE14" s="2">
+        <v>3</v>
+      </c>
+      <c r="BF14" s="2">
         <v>2</v>
       </c>
-      <c r="BB14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF14" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="BG14" s="2" t="s">
         <v>0</v>
       </c>
@@ -3105,24 +3648,24 @@
       <c r="BI14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BJ14" s="2">
+      <c r="BJ14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO14" s="2">
         <v>2</v>
       </c>
-      <c r="BK14" s="2">
-        <v>3</v>
-      </c>
-      <c r="BL14" s="2">
-        <v>3</v>
-      </c>
-      <c r="BM14" s="2">
-        <v>3</v>
-      </c>
-      <c r="BN14" s="2">
-        <v>3</v>
-      </c>
-      <c r="BO14" s="2">
-        <v>3</v>
-      </c>
       <c r="BP14" s="2">
         <v>3</v>
       </c>
@@ -3135,8 +3678,44 @@
       <c r="BS14" s="2">
         <v>3</v>
       </c>
+      <c r="BT14" s="2">
+        <v>3</v>
+      </c>
+      <c r="BU14" s="2">
+        <v>3</v>
+      </c>
+      <c r="BV14" s="2">
+        <v>3</v>
+      </c>
+      <c r="BW14" s="2">
+        <v>3</v>
+      </c>
+      <c r="BX14" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="15" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H15" s="2" t="s">
         <v>0</v>
       </c>
@@ -3200,8 +3779,8 @@
       <c r="AB15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AC15" s="2">
-        <v>1</v>
+      <c r="AC15" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AD15" s="2" t="s">
         <v>0</v>
@@ -3215,17 +3794,17 @@
       <c r="AG15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AH15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK15" s="2">
-        <v>3</v>
+      <c r="AH15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AL15" s="2" t="s">
         <v>0</v>
@@ -3233,14 +3812,14 @@
       <c r="AM15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AN15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP15" s="2" t="s">
-        <v>0</v>
+      <c r="AN15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP15" s="2">
+        <v>3</v>
       </c>
       <c r="AQ15" s="2" t="s">
         <v>0</v>
@@ -3251,20 +3830,20 @@
       <c r="AS15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AT15" s="2">
-        <v>3</v>
-      </c>
-      <c r="AU15" s="2">
-        <v>3</v>
-      </c>
-      <c r="AV15" s="2">
-        <v>3</v>
+      <c r="AT15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AW15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AX15" s="2">
-        <v>3</v>
+      <c r="AX15" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AY15" s="2">
         <v>3</v>
@@ -3272,20 +3851,20 @@
       <c r="AZ15" s="2">
         <v>3</v>
       </c>
-      <c r="BA15" s="2" t="s">
-        <v>0</v>
+      <c r="BA15" s="2">
+        <v>3</v>
       </c>
       <c r="BB15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BC15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE15" s="2" t="s">
-        <v>0</v>
+      <c r="BC15" s="2">
+        <v>3</v>
+      </c>
+      <c r="BD15" s="2">
+        <v>3</v>
+      </c>
+      <c r="BE15" s="2">
+        <v>3</v>
       </c>
       <c r="BF15" s="2" t="s">
         <v>0</v>
@@ -3302,20 +3881,20 @@
       <c r="BJ15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BK15" s="2">
-        <v>3</v>
-      </c>
-      <c r="BL15" s="2">
-        <v>3</v>
-      </c>
-      <c r="BM15" s="2">
-        <v>3</v>
-      </c>
-      <c r="BN15" s="2">
-        <v>3</v>
-      </c>
-      <c r="BO15" s="2">
-        <v>3</v>
+      <c r="BK15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO15" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="BP15" s="2">
         <v>3</v>
@@ -3329,8 +3908,44 @@
       <c r="BS15" s="2">
         <v>3</v>
       </c>
+      <c r="BT15" s="2">
+        <v>3</v>
+      </c>
+      <c r="BU15" s="2">
+        <v>3</v>
+      </c>
+      <c r="BV15" s="2">
+        <v>3</v>
+      </c>
+      <c r="BW15" s="2">
+        <v>3</v>
+      </c>
+      <c r="BX15" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="16" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H16" s="2" t="s">
         <v>0</v>
       </c>
@@ -3394,47 +4009,47 @@
       <c r="AB16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AC16" s="2">
-        <v>1</v>
+      <c r="AC16" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AD16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AE16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG16" s="2">
-        <v>1</v>
+      <c r="AE16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AH16" s="2">
         <v>1</v>
       </c>
-      <c r="AI16" s="2">
-        <v>1</v>
+      <c r="AI16" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AJ16" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK16" s="2">
-        <v>3</v>
-      </c>
-      <c r="AL16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP16" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AL16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO16" s="2">
+        <v>3</v>
+      </c>
+      <c r="AP16" s="2">
+        <v>3</v>
       </c>
       <c r="AQ16" s="2" t="s">
         <v>0</v>
@@ -3496,20 +4111,20 @@
       <c r="BJ16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BK16" s="2">
-        <v>3</v>
-      </c>
-      <c r="BL16" s="2">
-        <v>3</v>
-      </c>
-      <c r="BM16" s="2">
-        <v>3</v>
-      </c>
-      <c r="BN16" s="2">
-        <v>3</v>
-      </c>
-      <c r="BO16" s="2">
-        <v>3</v>
+      <c r="BK16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO16" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="BP16" s="2">
         <v>3</v>
@@ -3523,8 +4138,44 @@
       <c r="BS16" s="2">
         <v>3</v>
       </c>
+      <c r="BT16" s="2">
+        <v>3</v>
+      </c>
+      <c r="BU16" s="2">
+        <v>3</v>
+      </c>
+      <c r="BV16" s="2">
+        <v>3</v>
+      </c>
+      <c r="BW16" s="2">
+        <v>3</v>
+      </c>
+      <c r="BX16" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="17" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H17" s="2" t="s">
         <v>0</v>
       </c>
@@ -3588,8 +4239,8 @@
       <c r="AB17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AC17" s="2">
-        <v>1</v>
+      <c r="AC17" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AD17" s="2" t="s">
         <v>0</v>
@@ -3604,31 +4255,31 @@
         <v>0</v>
       </c>
       <c r="AH17" s="2">
-        <v>3</v>
-      </c>
-      <c r="AI17" s="2">
-        <v>3</v>
-      </c>
-      <c r="AJ17" s="2">
-        <v>3</v>
-      </c>
-      <c r="AK17" s="2">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="AI17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AL17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AM17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP17" s="2" t="s">
-        <v>0</v>
+      <c r="AM17" s="2">
+        <v>3</v>
+      </c>
+      <c r="AN17" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO17" s="2">
+        <v>3</v>
+      </c>
+      <c r="AP17" s="2">
+        <v>3</v>
       </c>
       <c r="AQ17" s="2" t="s">
         <v>0</v>
@@ -3639,8 +4290,8 @@
       <c r="AS17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AT17" s="2">
-        <v>2</v>
+      <c r="AT17" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AU17" s="2" t="s">
         <v>0</v>
@@ -3669,8 +4320,8 @@
       <c r="BC17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BD17" s="2" t="s">
-        <v>0</v>
+      <c r="BD17" s="2">
+        <v>2</v>
       </c>
       <c r="BE17" s="2" t="s">
         <v>0</v>
@@ -3690,20 +4341,20 @@
       <c r="BJ17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BK17" s="2">
-        <v>3</v>
-      </c>
-      <c r="BL17" s="2">
-        <v>3</v>
-      </c>
-      <c r="BM17" s="2">
-        <v>3</v>
-      </c>
-      <c r="BN17" s="2">
-        <v>3</v>
-      </c>
-      <c r="BO17" s="2">
-        <v>3</v>
+      <c r="BK17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO17" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="BP17" s="2">
         <v>3</v>
@@ -3717,8 +4368,44 @@
       <c r="BS17" s="2">
         <v>3</v>
       </c>
+      <c r="BT17" s="2">
+        <v>3</v>
+      </c>
+      <c r="BU17" s="2">
+        <v>3</v>
+      </c>
+      <c r="BV17" s="2">
+        <v>3</v>
+      </c>
+      <c r="BW17" s="2">
+        <v>3</v>
+      </c>
+      <c r="BX17" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="18" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H18" s="2" t="s">
         <v>0</v>
       </c>
@@ -3782,8 +4469,8 @@
       <c r="AB18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AC18" s="2">
-        <v>1</v>
+      <c r="AC18" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AD18" s="2" t="s">
         <v>0</v>
@@ -3797,8 +4484,8 @@
       <c r="AG18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AH18" s="2" t="s">
-        <v>0</v>
+      <c r="AH18" s="2">
+        <v>1</v>
       </c>
       <c r="AI18" s="2" t="s">
         <v>0</v>
@@ -3887,20 +4574,20 @@
       <c r="BK18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BL18" s="2">
-        <v>3</v>
-      </c>
-      <c r="BM18" s="2">
-        <v>3</v>
-      </c>
-      <c r="BN18" s="2">
-        <v>3</v>
-      </c>
-      <c r="BO18" s="2">
-        <v>3</v>
-      </c>
-      <c r="BP18" s="2">
-        <v>3</v>
+      <c r="BL18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP18" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="BQ18" s="2">
         <v>3</v>
@@ -3911,8 +4598,44 @@
       <c r="BS18" s="2">
         <v>3</v>
       </c>
+      <c r="BT18" s="2">
+        <v>3</v>
+      </c>
+      <c r="BU18" s="2">
+        <v>3</v>
+      </c>
+      <c r="BV18" s="2">
+        <v>3</v>
+      </c>
+      <c r="BW18" s="2">
+        <v>3</v>
+      </c>
+      <c r="BX18" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="19" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H19" s="2" t="s">
         <v>0</v>
       </c>
@@ -3976,8 +4699,8 @@
       <c r="AB19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AC19" s="2">
-        <v>1</v>
+      <c r="AC19" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AD19" s="2" t="s">
         <v>0</v>
@@ -3991,8 +4714,8 @@
       <c r="AG19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AH19" s="2" t="s">
-        <v>0</v>
+      <c r="AH19" s="2">
+        <v>1</v>
       </c>
       <c r="AI19" s="2" t="s">
         <v>0</v>
@@ -4084,20 +4807,20 @@
       <c r="BL19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BM19" s="2">
-        <v>3</v>
-      </c>
-      <c r="BN19" s="2">
-        <v>3</v>
-      </c>
-      <c r="BO19" s="2">
-        <v>3</v>
-      </c>
-      <c r="BP19" s="2">
-        <v>3</v>
-      </c>
-      <c r="BQ19" s="2">
-        <v>3</v>
+      <c r="BM19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ19" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="BR19" s="2">
         <v>3</v>
@@ -4105,8 +4828,44 @@
       <c r="BS19" s="2">
         <v>3</v>
       </c>
+      <c r="BT19" s="2">
+        <v>3</v>
+      </c>
+      <c r="BU19" s="2">
+        <v>3</v>
+      </c>
+      <c r="BV19" s="2">
+        <v>3</v>
+      </c>
+      <c r="BW19" s="2">
+        <v>3</v>
+      </c>
+      <c r="BX19" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="20" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H20" s="2" t="s">
         <v>0</v>
       </c>
@@ -4146,29 +4905,29 @@
       <c r="T20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="U20" s="2">
-        <v>1</v>
-      </c>
-      <c r="V20" s="2">
-        <v>1</v>
-      </c>
-      <c r="W20" s="2">
-        <v>1</v>
-      </c>
-      <c r="X20" s="2">
-        <v>1</v>
+      <c r="U20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X20" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="Y20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Z20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="2" t="s">
-        <v>0</v>
+      <c r="Z20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>1</v>
       </c>
       <c r="AC20" s="2">
         <v>1</v>
@@ -4185,8 +4944,8 @@
       <c r="AG20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AH20" s="2" t="s">
-        <v>0</v>
+      <c r="AH20" s="2">
+        <v>1</v>
       </c>
       <c r="AI20" s="2" t="s">
         <v>0</v>
@@ -4230,24 +4989,24 @@
       <c r="AV20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AW20" s="2">
+      <c r="AW20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB20" s="2">
         <v>4</v>
       </c>
-      <c r="AX20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB20" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="BC20" s="2" t="s">
         <v>0</v>
       </c>
@@ -4281,26 +5040,62 @@
       <c r="BM20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BN20" s="2">
-        <v>3</v>
-      </c>
-      <c r="BO20" s="2">
-        <v>3</v>
-      </c>
-      <c r="BP20" s="2">
-        <v>3</v>
-      </c>
-      <c r="BQ20" s="2">
-        <v>3</v>
-      </c>
-      <c r="BR20" s="2">
-        <v>3</v>
+      <c r="BN20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR20" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="BS20" s="2">
         <v>3</v>
       </c>
+      <c r="BT20" s="2">
+        <v>3</v>
+      </c>
+      <c r="BU20" s="2">
+        <v>3</v>
+      </c>
+      <c r="BV20" s="2">
+        <v>3</v>
+      </c>
+      <c r="BW20" s="2">
+        <v>3</v>
+      </c>
+      <c r="BX20" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="21" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H21" s="2" t="s">
         <v>0</v>
       </c>
@@ -4337,20 +5132,20 @@
       <c r="S21" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="T21" s="2">
-        <v>1</v>
-      </c>
-      <c r="U21" s="2">
-        <v>1</v>
-      </c>
-      <c r="V21" s="2">
-        <v>1</v>
-      </c>
-      <c r="W21" s="2">
-        <v>1</v>
-      </c>
-      <c r="X21" s="2">
-        <v>1</v>
+      <c r="T21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="Y21" s="2">
         <v>1</v>
@@ -4358,20 +5153,20 @@
       <c r="Z21" s="2">
         <v>1</v>
       </c>
-      <c r="AA21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="2" t="s">
-        <v>0</v>
+      <c r="AA21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>1</v>
       </c>
       <c r="AC21" s="2">
         <v>1</v>
       </c>
-      <c r="AD21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="2" t="s">
-        <v>0</v>
+      <c r="AD21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="2">
+        <v>1</v>
       </c>
       <c r="AF21" s="2" t="s">
         <v>0</v>
@@ -4380,26 +5175,26 @@
         <v>0</v>
       </c>
       <c r="AH21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="2">
         <v>2</v>
       </c>
-      <c r="AI21" s="2">
+      <c r="AN21" s="2">
         <v>2</v>
       </c>
-      <c r="AJ21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="AO21" s="2" t="s">
         <v>0</v>
       </c>
@@ -4472,29 +5267,65 @@
       <c r="BL21" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BM21" s="2">
+      <c r="BM21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR21" s="2">
         <v>2</v>
       </c>
-      <c r="BN21" s="2">
-        <v>3</v>
-      </c>
-      <c r="BO21" s="2">
-        <v>3</v>
-      </c>
-      <c r="BP21" s="2">
-        <v>3</v>
-      </c>
-      <c r="BQ21" s="2">
-        <v>3</v>
-      </c>
-      <c r="BR21" s="2">
-        <v>3</v>
-      </c>
       <c r="BS21" s="2">
         <v>3</v>
       </c>
+      <c r="BT21" s="2">
+        <v>3</v>
+      </c>
+      <c r="BU21" s="2">
+        <v>3</v>
+      </c>
+      <c r="BV21" s="2">
+        <v>3</v>
+      </c>
+      <c r="BW21" s="2">
+        <v>3</v>
+      </c>
+      <c r="BX21" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="22" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H22" s="2" t="s">
         <v>0</v>
       </c>
@@ -4528,14 +5359,14 @@
       <c r="R22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S22" s="2">
-        <v>1</v>
-      </c>
-      <c r="T22" s="2">
-        <v>1</v>
-      </c>
-      <c r="U22" s="2">
-        <v>1</v>
+      <c r="S22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="V22" s="2" t="s">
         <v>0</v>
@@ -4552,29 +5383,29 @@
       <c r="Z22" s="2">
         <v>1</v>
       </c>
-      <c r="AA22" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB22" s="2">
-        <v>1</v>
+      <c r="AA22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AC22" s="2">
         <v>1</v>
       </c>
-      <c r="AD22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="2" t="s">
-        <v>0</v>
+      <c r="AD22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH22" s="2">
+        <v>1</v>
       </c>
       <c r="AI22" s="2" t="s">
         <v>0</v>
@@ -4669,26 +5500,62 @@
       <c r="BM22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BN22" s="2">
-        <v>3</v>
-      </c>
-      <c r="BO22" s="2">
-        <v>3</v>
-      </c>
-      <c r="BP22" s="2">
-        <v>3</v>
-      </c>
-      <c r="BQ22" s="2">
-        <v>3</v>
-      </c>
-      <c r="BR22" s="2">
-        <v>3</v>
+      <c r="BN22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR22" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="BS22" s="2">
         <v>3</v>
       </c>
+      <c r="BT22" s="2">
+        <v>3</v>
+      </c>
+      <c r="BU22" s="2">
+        <v>3</v>
+      </c>
+      <c r="BV22" s="2">
+        <v>3</v>
+      </c>
+      <c r="BW22" s="2">
+        <v>3</v>
+      </c>
+      <c r="BX22" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="23" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H23" s="2" t="s">
         <v>0</v>
       </c>
@@ -4722,11 +5589,11 @@
       <c r="R23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S23" s="2">
-        <v>1</v>
-      </c>
-      <c r="T23" s="2">
-        <v>1</v>
+      <c r="S23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="U23" s="2" t="s">
         <v>0</v>
@@ -4737,11 +5604,11 @@
       <c r="W23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="X23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="2" t="s">
-        <v>0</v>
+      <c r="X23" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>1</v>
       </c>
       <c r="Z23" s="2" t="s">
         <v>0</v>
@@ -4848,8 +5715,8 @@
       <c r="BH23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BI23" s="2">
-        <v>1</v>
+      <c r="BI23" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="BJ23" s="2" t="s">
         <v>0</v>
@@ -4864,25 +5731,61 @@
         <v>0</v>
       </c>
       <c r="BN23" s="2">
-        <v>3</v>
-      </c>
-      <c r="BO23" s="2">
-        <v>3</v>
-      </c>
-      <c r="BP23" s="2">
-        <v>3</v>
-      </c>
-      <c r="BQ23" s="2">
-        <v>3</v>
-      </c>
-      <c r="BR23" s="2">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="BO23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR23" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="BS23" s="2">
         <v>3</v>
       </c>
+      <c r="BT23" s="2">
+        <v>3</v>
+      </c>
+      <c r="BU23" s="2">
+        <v>3</v>
+      </c>
+      <c r="BV23" s="2">
+        <v>3</v>
+      </c>
+      <c r="BW23" s="2">
+        <v>3</v>
+      </c>
+      <c r="BX23" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="24" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H24" s="2" t="s">
         <v>0</v>
       </c>
@@ -4913,14 +5816,14 @@
       <c r="Q24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="R24" s="2">
-        <v>1</v>
-      </c>
-      <c r="S24" s="2">
-        <v>1</v>
-      </c>
-      <c r="T24" s="2">
-        <v>1</v>
+      <c r="R24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="U24" s="2" t="s">
         <v>0</v>
@@ -4928,14 +5831,14 @@
       <c r="V24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="W24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="X24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="2" t="s">
-        <v>0</v>
+      <c r="W24" s="2">
+        <v>1</v>
+      </c>
+      <c r="X24" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>1</v>
       </c>
       <c r="Z24" s="2" t="s">
         <v>0</v>
@@ -5042,8 +5945,8 @@
       <c r="BH24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BI24" s="2">
-        <v>1</v>
+      <c r="BI24" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="BJ24" s="2" t="s">
         <v>0</v>
@@ -5054,29 +5957,65 @@
       <c r="BL24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BM24" s="2">
+      <c r="BM24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN24" s="2">
+        <v>1</v>
+      </c>
+      <c r="BO24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR24" s="2">
         <v>2</v>
       </c>
-      <c r="BN24" s="2">
-        <v>3</v>
-      </c>
-      <c r="BO24" s="2">
-        <v>3</v>
-      </c>
-      <c r="BP24" s="2">
-        <v>3</v>
-      </c>
-      <c r="BQ24" s="2">
-        <v>3</v>
-      </c>
-      <c r="BR24" s="2">
-        <v>3</v>
-      </c>
       <c r="BS24" s="2">
         <v>3</v>
       </c>
+      <c r="BT24" s="2">
+        <v>3</v>
+      </c>
+      <c r="BU24" s="2">
+        <v>3</v>
+      </c>
+      <c r="BV24" s="2">
+        <v>3</v>
+      </c>
+      <c r="BW24" s="2">
+        <v>3</v>
+      </c>
+      <c r="BX24" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="25" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H25" s="2" t="s">
         <v>0</v>
       </c>
@@ -5104,59 +6043,59 @@
       <c r="P25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Q25" s="2">
-        <v>1</v>
-      </c>
-      <c r="R25" s="2">
-        <v>1</v>
-      </c>
-      <c r="S25" s="2">
-        <v>1</v>
-      </c>
-      <c r="T25" s="2">
-        <v>1</v>
+      <c r="Q25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="U25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="V25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="W25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="X25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA25" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB25" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC25" s="2">
-        <v>1</v>
+      <c r="V25" s="2">
+        <v>1</v>
+      </c>
+      <c r="W25" s="2">
+        <v>1</v>
+      </c>
+      <c r="X25" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AD25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AE25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="2" t="s">
-        <v>0</v>
+      <c r="AE25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH25" s="2">
+        <v>1</v>
       </c>
       <c r="AI25" s="2" t="s">
         <v>0</v>
@@ -5171,23 +6110,23 @@
         <v>0</v>
       </c>
       <c r="AM25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AN25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR25" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="AS25" s="2" t="s">
         <v>0</v>
       </c>
@@ -5236,8 +6175,8 @@
       <c r="BH25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BI25" s="2">
-        <v>1</v>
+      <c r="BI25" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="BJ25" s="2" t="s">
         <v>0</v>
@@ -5252,25 +6191,61 @@
         <v>0</v>
       </c>
       <c r="BN25" s="2">
-        <v>3</v>
-      </c>
-      <c r="BO25" s="2">
-        <v>3</v>
-      </c>
-      <c r="BP25" s="2">
-        <v>3</v>
-      </c>
-      <c r="BQ25" s="2">
-        <v>3</v>
-      </c>
-      <c r="BR25" s="2">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="BO25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR25" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="BS25" s="2">
         <v>3</v>
       </c>
+      <c r="BT25" s="2">
+        <v>3</v>
+      </c>
+      <c r="BU25" s="2">
+        <v>3</v>
+      </c>
+      <c r="BV25" s="2">
+        <v>3</v>
+      </c>
+      <c r="BW25" s="2">
+        <v>3</v>
+      </c>
+      <c r="BX25" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="26" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H26" s="2" t="s">
         <v>0</v>
       </c>
@@ -5295,29 +6270,29 @@
       <c r="O26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="P26" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="2">
-        <v>1</v>
-      </c>
-      <c r="R26" s="2">
-        <v>1</v>
-      </c>
-      <c r="S26" s="2">
-        <v>1</v>
-      </c>
-      <c r="T26" s="2">
-        <v>1</v>
-      </c>
-      <c r="U26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="V26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="W26" s="2" t="s">
-        <v>0</v>
+      <c r="P26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U26" s="2">
+        <v>1</v>
+      </c>
+      <c r="V26" s="2">
+        <v>1</v>
+      </c>
+      <c r="W26" s="2">
+        <v>1</v>
       </c>
       <c r="X26" s="2">
         <v>1</v>
@@ -5325,8 +6300,8 @@
       <c r="Y26" s="2">
         <v>1</v>
       </c>
-      <c r="Z26" s="2">
-        <v>1</v>
+      <c r="Z26" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AA26" s="2" t="s">
         <v>0</v>
@@ -5337,54 +6312,54 @@
       <c r="AC26" s="2">
         <v>1</v>
       </c>
-      <c r="AD26" s="2" t="s">
-        <v>0</v>
+      <c r="AD26" s="2">
+        <v>1</v>
       </c>
       <c r="AE26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="2">
         <v>2</v>
       </c>
-      <c r="AF26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ26" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="AK26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AL26" s="2">
+      <c r="AL26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="2">
         <v>2</v>
       </c>
-      <c r="AM26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN26" s="2">
+      <c r="AR26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="2">
         <v>2</v>
       </c>
-      <c r="AO26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS26" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="AT26" s="2" t="s">
         <v>0</v>
       </c>
@@ -5427,11 +6402,11 @@
       <c r="BG26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BH26" s="2">
-        <v>1</v>
+      <c r="BH26" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="BI26" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BJ26" s="2" t="s">
         <v>0</v>
@@ -5439,32 +6414,68 @@
       <c r="BK26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BL26" s="2">
+      <c r="BL26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM26" s="2">
+        <v>1</v>
+      </c>
+      <c r="BN26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ26" s="2">
         <v>2</v>
       </c>
-      <c r="BM26" s="2">
-        <v>3</v>
-      </c>
-      <c r="BN26" s="2">
-        <v>3</v>
-      </c>
-      <c r="BO26" s="2">
-        <v>3</v>
-      </c>
-      <c r="BP26" s="2">
-        <v>3</v>
-      </c>
-      <c r="BQ26" s="2">
-        <v>3</v>
-      </c>
       <c r="BR26" s="2">
         <v>3</v>
       </c>
       <c r="BS26" s="2">
         <v>3</v>
       </c>
+      <c r="BT26" s="2">
+        <v>3</v>
+      </c>
+      <c r="BU26" s="2">
+        <v>3</v>
+      </c>
+      <c r="BV26" s="2">
+        <v>3</v>
+      </c>
+      <c r="BW26" s="2">
+        <v>3</v>
+      </c>
+      <c r="BX26" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="27" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H27" s="2" t="s">
         <v>0</v>
       </c>
@@ -5483,20 +6494,20 @@
       <c r="M27" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N27" s="2">
-        <v>1</v>
-      </c>
-      <c r="O27" s="2">
-        <v>1</v>
-      </c>
-      <c r="P27" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>1</v>
-      </c>
-      <c r="R27" s="2">
-        <v>1</v>
+      <c r="N27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="S27" s="2">
         <v>1</v>
@@ -5504,11 +6515,11 @@
       <c r="T27" s="2">
         <v>1</v>
       </c>
-      <c r="U27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="V27" s="2" t="s">
-        <v>0</v>
+      <c r="U27" s="2">
+        <v>1</v>
+      </c>
+      <c r="V27" s="2">
+        <v>1</v>
       </c>
       <c r="W27" s="2">
         <v>1</v>
@@ -5525,14 +6536,14 @@
       <c r="AA27" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AB27" s="2" t="s">
-        <v>0</v>
+      <c r="AB27" s="2">
+        <v>1</v>
       </c>
       <c r="AC27" s="2">
         <v>1</v>
       </c>
-      <c r="AD27" s="2" t="s">
-        <v>0</v>
+      <c r="AD27" s="2">
+        <v>1</v>
       </c>
       <c r="AE27" s="2" t="s">
         <v>0</v>
@@ -5543,8 +6554,8 @@
       <c r="AG27" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AH27" s="2" t="s">
-        <v>0</v>
+      <c r="AH27" s="2">
+        <v>1</v>
       </c>
       <c r="AI27" s="2" t="s">
         <v>0</v>
@@ -5558,24 +6569,24 @@
       <c r="AL27" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AM27" s="2">
+      <c r="AM27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="2">
         <v>2</v>
       </c>
-      <c r="AN27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR27" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="AS27" s="2" t="s">
         <v>0</v>
       </c>
@@ -5624,8 +6635,8 @@
       <c r="BH27" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BI27" s="2">
-        <v>1</v>
+      <c r="BI27" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="BJ27" s="2" t="s">
         <v>0</v>
@@ -5636,20 +6647,20 @@
       <c r="BL27" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BM27" s="2">
-        <v>3</v>
+      <c r="BM27" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="BN27" s="2">
-        <v>3</v>
-      </c>
-      <c r="BO27" s="2">
-        <v>3</v>
-      </c>
-      <c r="BP27" s="2">
-        <v>3</v>
-      </c>
-      <c r="BQ27" s="2">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="BO27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ27" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="BR27" s="2">
         <v>3</v>
@@ -5657,8 +6668,44 @@
       <c r="BS27" s="2">
         <v>3</v>
       </c>
+      <c r="BT27" s="2">
+        <v>3</v>
+      </c>
+      <c r="BU27" s="2">
+        <v>3</v>
+      </c>
+      <c r="BV27" s="2">
+        <v>3</v>
+      </c>
+      <c r="BW27" s="2">
+        <v>3</v>
+      </c>
+      <c r="BX27" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="28" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H28" s="2" t="s">
         <v>0</v>
       </c>
@@ -5677,20 +6724,20 @@
       <c r="M28" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N28" s="2">
-        <v>1</v>
-      </c>
-      <c r="O28" s="2">
-        <v>1</v>
-      </c>
-      <c r="P28" s="2">
-        <v>1</v>
+      <c r="N28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="Q28" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="R28" s="2">
-        <v>1</v>
+      <c r="R28" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="S28" s="2">
         <v>1</v>
@@ -5710,11 +6757,11 @@
       <c r="X28" s="2">
         <v>1</v>
       </c>
-      <c r="Y28" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="2" t="s">
-        <v>0</v>
+      <c r="Y28" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>1</v>
       </c>
       <c r="AA28" s="2" t="s">
         <v>0</v>
@@ -5725,8 +6772,8 @@
       <c r="AC28" s="2">
         <v>1</v>
       </c>
-      <c r="AD28" s="2">
-        <v>1</v>
+      <c r="AD28" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AE28" s="2" t="s">
         <v>0</v>
@@ -5734,14 +6781,14 @@
       <c r="AF28" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AG28" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI28" s="2" t="s">
-        <v>0</v>
+      <c r="AG28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI28" s="2">
+        <v>1</v>
       </c>
       <c r="AJ28" s="2" t="s">
         <v>0</v>
@@ -5818,8 +6865,8 @@
       <c r="BH28" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BI28" s="2">
-        <v>1</v>
+      <c r="BI28" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="BJ28" s="2" t="s">
         <v>0</v>
@@ -5827,20 +6874,20 @@
       <c r="BK28" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BL28" s="2">
-        <v>3</v>
-      </c>
-      <c r="BM28" s="2">
-        <v>3</v>
+      <c r="BL28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM28" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="BN28" s="2">
-        <v>3</v>
-      </c>
-      <c r="BO28" s="2">
-        <v>3</v>
-      </c>
-      <c r="BP28" s="2">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="BO28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP28" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="BQ28" s="2">
         <v>3</v>
@@ -5851,8 +6898,44 @@
       <c r="BS28" s="2">
         <v>3</v>
       </c>
+      <c r="BT28" s="2">
+        <v>3</v>
+      </c>
+      <c r="BU28" s="2">
+        <v>3</v>
+      </c>
+      <c r="BV28" s="2">
+        <v>3</v>
+      </c>
+      <c r="BW28" s="2">
+        <v>3</v>
+      </c>
+      <c r="BX28" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="29" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H29" s="2" t="s">
         <v>0</v>
       </c>
@@ -5871,11 +6954,11 @@
       <c r="M29" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N29" s="2">
-        <v>1</v>
-      </c>
-      <c r="O29" s="2">
-        <v>1</v>
+      <c r="N29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>0</v>
@@ -5892,23 +6975,23 @@
       <c r="T29" s="2">
         <v>1</v>
       </c>
-      <c r="U29" s="2">
-        <v>1</v>
+      <c r="U29" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="V29" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="W29" s="2">
-        <v>1</v>
+      <c r="W29" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="X29" s="2">
         <v>1</v>
       </c>
-      <c r="Y29" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="2" t="s">
-        <v>0</v>
+      <c r="Y29" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="2">
+        <v>1</v>
       </c>
       <c r="AA29" s="2" t="s">
         <v>0</v>
@@ -5919,14 +7002,14 @@
       <c r="AC29" s="2">
         <v>1</v>
       </c>
-      <c r="AD29" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE29" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF29" s="2">
-        <v>1</v>
+      <c r="AD29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AG29" s="2">
         <v>1</v>
@@ -5934,14 +7017,14 @@
       <c r="AH29" s="2">
         <v>1</v>
       </c>
-      <c r="AI29" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ29" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK29" s="2" t="s">
-        <v>0</v>
+      <c r="AI29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="2">
+        <v>1</v>
       </c>
       <c r="AL29" s="2">
         <v>1</v>
@@ -5949,14 +7032,14 @@
       <c r="AM29" s="2">
         <v>1</v>
       </c>
-      <c r="AN29" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO29" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP29" s="2">
-        <v>1</v>
+      <c r="AN29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP29" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AQ29" s="2">
         <v>1</v>
@@ -5997,8 +7080,8 @@
       <c r="BC29" s="2">
         <v>1</v>
       </c>
-      <c r="BD29" s="2" t="s">
-        <v>0</v>
+      <c r="BD29" s="2">
+        <v>1</v>
       </c>
       <c r="BE29" s="2">
         <v>1</v>
@@ -6012,8 +7095,8 @@
       <c r="BH29" s="2">
         <v>1</v>
       </c>
-      <c r="BI29" s="2">
-        <v>1</v>
+      <c r="BI29" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="BJ29" s="2">
         <v>1</v>
@@ -6022,19 +7105,19 @@
         <v>1</v>
       </c>
       <c r="BL29" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BM29" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BN29" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BO29" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BP29" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BQ29" s="2">
         <v>3</v>
@@ -6045,8 +7128,44 @@
       <c r="BS29" s="2">
         <v>3</v>
       </c>
+      <c r="BT29" s="2">
+        <v>3</v>
+      </c>
+      <c r="BU29" s="2">
+        <v>3</v>
+      </c>
+      <c r="BV29" s="2">
+        <v>3</v>
+      </c>
+      <c r="BW29" s="2">
+        <v>3</v>
+      </c>
+      <c r="BX29" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="30" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H30" s="2" t="s">
         <v>0</v>
       </c>
@@ -6065,11 +7184,11 @@
       <c r="M30" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N30" s="2">
-        <v>1</v>
-      </c>
-      <c r="O30" s="2">
-        <v>1</v>
+      <c r="N30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>0</v>
@@ -6080,11 +7199,11 @@
       <c r="R30" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S30" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="T30" s="2" t="s">
-        <v>0</v>
+      <c r="S30" s="2">
+        <v>1</v>
+      </c>
+      <c r="T30" s="2">
+        <v>1</v>
       </c>
       <c r="U30" s="2" t="s">
         <v>0</v>
@@ -6092,11 +7211,11 @@
       <c r="V30" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="W30" s="2">
-        <v>1</v>
-      </c>
-      <c r="X30" s="2">
-        <v>1</v>
+      <c r="W30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="Y30" s="2" t="s">
         <v>0</v>
@@ -6113,8 +7232,8 @@
       <c r="AC30" s="2">
         <v>1</v>
       </c>
-      <c r="AD30" s="2">
-        <v>1</v>
+      <c r="AD30" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AE30" s="2" t="s">
         <v>0</v>
@@ -6128,8 +7247,8 @@
       <c r="AH30" s="2">
         <v>1</v>
       </c>
-      <c r="AI30" s="2" t="s">
-        <v>0</v>
+      <c r="AI30" s="2">
+        <v>1</v>
       </c>
       <c r="AJ30" s="2" t="s">
         <v>0</v>
@@ -6143,14 +7262,14 @@
       <c r="AM30" s="2">
         <v>1</v>
       </c>
-      <c r="AN30" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO30" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP30" s="2">
-        <v>1</v>
+      <c r="AN30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP30" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AQ30" s="2">
         <v>1</v>
@@ -6191,8 +7310,8 @@
       <c r="BC30" s="2">
         <v>1</v>
       </c>
-      <c r="BD30" s="2" t="s">
-        <v>0</v>
+      <c r="BD30" s="2">
+        <v>1</v>
       </c>
       <c r="BE30" s="2">
         <v>1</v>
@@ -6206,20 +7325,20 @@
       <c r="BH30" s="2">
         <v>1</v>
       </c>
-      <c r="BI30" s="2">
-        <v>3</v>
+      <c r="BI30" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="BJ30" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BK30" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BL30" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BM30" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BN30" s="2">
         <v>3</v>
@@ -6239,8 +7358,44 @@
       <c r="BS30" s="2">
         <v>3</v>
       </c>
+      <c r="BT30" s="2">
+        <v>3</v>
+      </c>
+      <c r="BU30" s="2">
+        <v>3</v>
+      </c>
+      <c r="BV30" s="2">
+        <v>3</v>
+      </c>
+      <c r="BW30" s="2">
+        <v>3</v>
+      </c>
+      <c r="BX30" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="31" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H31" s="2" t="s">
         <v>0</v>
       </c>
@@ -6259,8 +7414,8 @@
       <c r="M31" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N31" s="2">
-        <v>1</v>
+      <c r="N31" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>0</v>
@@ -6274,8 +7429,8 @@
       <c r="R31" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S31" s="2" t="s">
-        <v>0</v>
+      <c r="S31" s="2">
+        <v>1</v>
       </c>
       <c r="T31" s="2" t="s">
         <v>0</v>
@@ -6286,11 +7441,11 @@
       <c r="V31" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="W31" s="2">
-        <v>1</v>
-      </c>
-      <c r="X31" s="2">
-        <v>1</v>
+      <c r="W31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X31" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="Y31" s="2" t="s">
         <v>0</v>
@@ -6301,11 +7456,11 @@
       <c r="AA31" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AB31" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="2" t="s">
-        <v>0</v>
+      <c r="AB31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="2">
+        <v>1</v>
       </c>
       <c r="AD31" s="2" t="s">
         <v>0</v>
@@ -6316,11 +7471,11 @@
       <c r="AF31" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AG31" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH31" s="2">
-        <v>1</v>
+      <c r="AG31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AI31" s="2" t="s">
         <v>0</v>
@@ -6331,20 +7486,20 @@
       <c r="AK31" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AL31" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM31" s="2" t="s">
-        <v>0</v>
+      <c r="AL31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM31" s="2">
+        <v>1</v>
       </c>
       <c r="AN31" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AO31" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP31" s="2">
-        <v>1</v>
+      <c r="AO31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AQ31" s="2" t="s">
         <v>0</v>
@@ -6355,11 +7510,11 @@
       <c r="AS31" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AT31" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU31" s="2" t="s">
-        <v>0</v>
+      <c r="AT31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU31" s="2">
+        <v>1</v>
       </c>
       <c r="AV31" s="2" t="s">
         <v>0</v>
@@ -6370,11 +7525,11 @@
       <c r="AX31" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AY31" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ31" s="2">
-        <v>1</v>
+      <c r="AY31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ31" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="BA31" s="2" t="s">
         <v>0</v>
@@ -6385,35 +7540,35 @@
       <c r="BC31" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BD31" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE31" s="2" t="s">
-        <v>0</v>
+      <c r="BD31" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE31" s="2">
+        <v>1</v>
       </c>
       <c r="BF31" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BG31" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH31" s="2">
-        <v>1</v>
-      </c>
-      <c r="BI31" s="2">
-        <v>3</v>
-      </c>
-      <c r="BJ31" s="2">
-        <v>3</v>
-      </c>
-      <c r="BK31" s="2">
-        <v>3</v>
+      <c r="BG31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK31" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="BL31" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BM31" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BN31" s="2">
         <v>3</v>
@@ -6433,8 +7588,44 @@
       <c r="BS31" s="2">
         <v>3</v>
       </c>
+      <c r="BT31" s="2">
+        <v>3</v>
+      </c>
+      <c r="BU31" s="2">
+        <v>3</v>
+      </c>
+      <c r="BV31" s="2">
+        <v>3</v>
+      </c>
+      <c r="BW31" s="2">
+        <v>3</v>
+      </c>
+      <c r="BX31" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="32" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H32" s="2" t="s">
         <v>0</v>
       </c>
@@ -6453,11 +7644,11 @@
       <c r="M32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N32" s="2">
-        <v>1</v>
-      </c>
-      <c r="O32" s="2">
-        <v>1</v>
+      <c r="N32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>0</v>
@@ -6480,14 +7671,14 @@
       <c r="V32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="W32" s="2">
-        <v>1</v>
+      <c r="W32" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="X32" s="2">
         <v>1</v>
       </c>
-      <c r="Y32" s="2" t="s">
-        <v>0</v>
+      <c r="Y32" s="2">
+        <v>1</v>
       </c>
       <c r="Z32" s="2" t="s">
         <v>0</v>
@@ -6495,11 +7686,11 @@
       <c r="AA32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AB32" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="2" t="s">
-        <v>0</v>
+      <c r="AB32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="2">
+        <v>1</v>
       </c>
       <c r="AD32" s="2" t="s">
         <v>0</v>
@@ -6510,11 +7701,11 @@
       <c r="AF32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AG32" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH32" s="2">
-        <v>1</v>
+      <c r="AG32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AI32" s="2" t="s">
         <v>0</v>
@@ -6525,20 +7716,20 @@
       <c r="AK32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AL32" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM32" s="2" t="s">
-        <v>0</v>
+      <c r="AL32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM32" s="2">
+        <v>1</v>
       </c>
       <c r="AN32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AO32" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP32" s="2">
-        <v>1</v>
+      <c r="AO32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP32" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AQ32" s="2" t="s">
         <v>0</v>
@@ -6549,11 +7740,11 @@
       <c r="AS32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AT32" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU32" s="2" t="s">
-        <v>0</v>
+      <c r="AT32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU32" s="2">
+        <v>1</v>
       </c>
       <c r="AV32" s="2" t="s">
         <v>0</v>
@@ -6564,11 +7755,11 @@
       <c r="AX32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AY32" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ32" s="2">
-        <v>1</v>
+      <c r="AY32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ32" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="BA32" s="2" t="s">
         <v>0</v>
@@ -6579,29 +7770,29 @@
       <c r="BC32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BD32" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE32" s="2" t="s">
-        <v>0</v>
+      <c r="BD32" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE32" s="2">
+        <v>1</v>
       </c>
       <c r="BF32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BG32" s="2">
-        <v>3</v>
-      </c>
-      <c r="BH32" s="2">
-        <v>3</v>
-      </c>
-      <c r="BI32" s="2">
-        <v>3</v>
-      </c>
-      <c r="BJ32" s="2">
-        <v>3</v>
-      </c>
-      <c r="BK32" s="2">
-        <v>3</v>
+      <c r="BG32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK32" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="BL32" s="2">
         <v>3</v>
@@ -6627,8 +7818,44 @@
       <c r="BS32" s="2">
         <v>3</v>
       </c>
+      <c r="BT32" s="2">
+        <v>3</v>
+      </c>
+      <c r="BU32" s="2">
+        <v>3</v>
+      </c>
+      <c r="BV32" s="2">
+        <v>3</v>
+      </c>
+      <c r="BW32" s="2">
+        <v>3</v>
+      </c>
+      <c r="BX32" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="33" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H33" s="2" t="s">
         <v>0</v>
       </c>
@@ -6647,20 +7874,20 @@
       <c r="M33" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N33" s="2">
-        <v>1</v>
-      </c>
-      <c r="O33" s="2">
-        <v>1</v>
-      </c>
-      <c r="P33" s="2">
-        <v>1</v>
+      <c r="N33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="Q33" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="R33" s="2">
-        <v>1</v>
+      <c r="R33" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="S33" s="2">
         <v>1</v>
@@ -6668,20 +7895,20 @@
       <c r="T33" s="2">
         <v>1</v>
       </c>
-      <c r="U33" s="2" t="s">
-        <v>0</v>
+      <c r="U33" s="2">
+        <v>1</v>
       </c>
       <c r="V33" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="W33" s="2" t="s">
-        <v>0</v>
+      <c r="W33" s="2">
+        <v>1</v>
       </c>
       <c r="X33" s="2">
         <v>1</v>
       </c>
-      <c r="Y33" s="2" t="s">
-        <v>0</v>
+      <c r="Y33" s="2">
+        <v>1</v>
       </c>
       <c r="Z33" s="2" t="s">
         <v>0</v>
@@ -6692,8 +7919,8 @@
       <c r="AB33" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AC33" s="2" t="s">
-        <v>0</v>
+      <c r="AC33" s="2">
+        <v>1</v>
       </c>
       <c r="AD33" s="2" t="s">
         <v>0</v>
@@ -6704,11 +7931,11 @@
       <c r="AF33" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AG33" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH33" s="2">
-        <v>1</v>
+      <c r="AG33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AI33" s="2" t="s">
         <v>0</v>
@@ -6719,11 +7946,11 @@
       <c r="AK33" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AL33" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM33" s="2" t="s">
-        <v>0</v>
+      <c r="AL33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM33" s="2">
+        <v>1</v>
       </c>
       <c r="AN33" s="2" t="s">
         <v>0</v>
@@ -6758,11 +7985,11 @@
       <c r="AX33" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AY33" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ33" s="2">
-        <v>1</v>
+      <c r="AY33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ33" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="BA33" s="2" t="s">
         <v>0</v>
@@ -6773,26 +8000,26 @@
       <c r="BC33" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BD33" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE33" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF33" s="2">
-        <v>3</v>
-      </c>
-      <c r="BG33" s="2">
-        <v>3</v>
-      </c>
-      <c r="BH33" s="2">
-        <v>3</v>
-      </c>
-      <c r="BI33" s="2">
-        <v>3</v>
-      </c>
-      <c r="BJ33" s="2">
-        <v>3</v>
+      <c r="BD33" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE33" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ33" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="BK33" s="2">
         <v>3</v>
@@ -6821,8 +8048,44 @@
       <c r="BS33" s="2">
         <v>3</v>
       </c>
+      <c r="BT33" s="2">
+        <v>3</v>
+      </c>
+      <c r="BU33" s="2">
+        <v>3</v>
+      </c>
+      <c r="BV33" s="2">
+        <v>3</v>
+      </c>
+      <c r="BW33" s="2">
+        <v>3</v>
+      </c>
+      <c r="BX33" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="34" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H34" s="2" t="s">
         <v>0</v>
       </c>
@@ -6841,20 +8104,20 @@
       <c r="M34" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N34" s="2">
-        <v>1</v>
-      </c>
-      <c r="O34" s="2">
-        <v>1</v>
-      </c>
-      <c r="P34" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="2">
-        <v>1</v>
-      </c>
-      <c r="R34" s="2">
-        <v>1</v>
+      <c r="N34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="S34" s="2">
         <v>1</v>
@@ -6862,14 +8125,14 @@
       <c r="T34" s="2">
         <v>1</v>
       </c>
-      <c r="U34" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="V34" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="W34" s="2" t="s">
-        <v>0</v>
+      <c r="U34" s="2">
+        <v>1</v>
+      </c>
+      <c r="V34" s="2">
+        <v>1</v>
+      </c>
+      <c r="W34" s="2">
+        <v>1</v>
       </c>
       <c r="X34" s="2">
         <v>1</v>
@@ -6886,11 +8149,11 @@
       <c r="AB34" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AC34" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="2" t="s">
-        <v>0</v>
+      <c r="AC34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="2">
+        <v>1</v>
       </c>
       <c r="AE34" s="2" t="s">
         <v>0</v>
@@ -6898,11 +8161,11 @@
       <c r="AF34" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AG34" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH34" s="2">
-        <v>1</v>
+      <c r="AG34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AI34" s="2" t="s">
         <v>0</v>
@@ -6913,20 +8176,20 @@
       <c r="AK34" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AL34" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM34" s="2" t="s">
-        <v>0</v>
+      <c r="AL34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM34" s="2">
+        <v>1</v>
       </c>
       <c r="AN34" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AO34" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP34" s="2">
-        <v>1</v>
+      <c r="AO34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP34" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AQ34" s="2" t="s">
         <v>0</v>
@@ -6937,11 +8200,11 @@
       <c r="AS34" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AT34" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU34" s="2" t="s">
-        <v>0</v>
+      <c r="AT34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU34" s="2">
+        <v>1</v>
       </c>
       <c r="AV34" s="2" t="s">
         <v>0</v>
@@ -6952,11 +8215,11 @@
       <c r="AX34" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AY34" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ34" s="2">
-        <v>1</v>
+      <c r="AY34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ34" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="BA34" s="2" t="s">
         <v>0</v>
@@ -6967,26 +8230,26 @@
       <c r="BC34" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BD34" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE34" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF34" s="2">
-        <v>3</v>
-      </c>
-      <c r="BG34" s="2">
-        <v>3</v>
-      </c>
-      <c r="BH34" s="2">
-        <v>3</v>
-      </c>
-      <c r="BI34" s="2">
-        <v>3</v>
-      </c>
-      <c r="BJ34" s="2">
-        <v>3</v>
+      <c r="BD34" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE34" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ34" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="BK34" s="2">
         <v>3</v>
@@ -7015,8 +8278,44 @@
       <c r="BS34" s="2">
         <v>3</v>
       </c>
+      <c r="BT34" s="2">
+        <v>3</v>
+      </c>
+      <c r="BU34" s="2">
+        <v>3</v>
+      </c>
+      <c r="BV34" s="2">
+        <v>3</v>
+      </c>
+      <c r="BW34" s="2">
+        <v>3</v>
+      </c>
+      <c r="BX34" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="35" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H35" s="2" t="s">
         <v>0</v>
       </c>
@@ -7041,32 +8340,32 @@
       <c r="O35" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="P35" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="2">
-        <v>1</v>
-      </c>
-      <c r="R35" s="2">
-        <v>1</v>
-      </c>
-      <c r="S35" s="2">
-        <v>1</v>
-      </c>
-      <c r="T35" s="2">
-        <v>1</v>
+      <c r="P35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="U35" s="2">
         <v>1</v>
       </c>
-      <c r="V35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="W35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="X35" s="2" t="s">
-        <v>0</v>
+      <c r="V35" s="2">
+        <v>1</v>
+      </c>
+      <c r="W35" s="2">
+        <v>1</v>
+      </c>
+      <c r="X35" s="2">
+        <v>1</v>
       </c>
       <c r="Y35" s="2">
         <v>1</v>
@@ -7083,20 +8382,20 @@
       <c r="AC35" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AD35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE35" s="2" t="s">
-        <v>0</v>
+      <c r="AD35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="2">
+        <v>1</v>
       </c>
       <c r="AF35" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AG35" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH35" s="2">
-        <v>1</v>
+      <c r="AG35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AI35" s="2" t="s">
         <v>0</v>
@@ -7107,20 +8406,20 @@
       <c r="AK35" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AL35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM35" s="2" t="s">
-        <v>0</v>
+      <c r="AL35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM35" s="2">
+        <v>1</v>
       </c>
       <c r="AN35" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AO35" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP35" s="2">
-        <v>1</v>
+      <c r="AO35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP35" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AQ35" s="2" t="s">
         <v>0</v>
@@ -7131,11 +8430,11 @@
       <c r="AS35" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AT35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU35" s="2" t="s">
-        <v>0</v>
+      <c r="AT35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU35" s="2">
+        <v>1</v>
       </c>
       <c r="AV35" s="2" t="s">
         <v>0</v>
@@ -7146,11 +8445,11 @@
       <c r="AX35" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AY35" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ35" s="2">
-        <v>1</v>
+      <c r="AY35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ35" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="BA35" s="2" t="s">
         <v>0</v>
@@ -7161,29 +8460,29 @@
       <c r="BC35" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BD35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE35" s="2" t="s">
-        <v>0</v>
+      <c r="BD35" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE35" s="2">
+        <v>1</v>
       </c>
       <c r="BF35" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BG35" s="2">
-        <v>3</v>
-      </c>
-      <c r="BH35" s="2">
-        <v>3</v>
-      </c>
-      <c r="BI35" s="2">
-        <v>3</v>
-      </c>
-      <c r="BJ35" s="2">
-        <v>3</v>
-      </c>
-      <c r="BK35" s="2">
-        <v>3</v>
+      <c r="BG35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK35" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="BL35" s="2">
         <v>3</v>
@@ -7209,8 +8508,44 @@
       <c r="BS35" s="2">
         <v>3</v>
       </c>
+      <c r="BT35" s="2">
+        <v>3</v>
+      </c>
+      <c r="BU35" s="2">
+        <v>3</v>
+      </c>
+      <c r="BV35" s="2">
+        <v>3</v>
+      </c>
+      <c r="BW35" s="2">
+        <v>3</v>
+      </c>
+      <c r="BX35" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="36" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H36" s="2" t="s">
         <v>0</v>
       </c>
@@ -7238,32 +8573,32 @@
       <c r="P36" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Q36" s="2">
-        <v>1</v>
-      </c>
-      <c r="R36" s="2">
-        <v>1</v>
-      </c>
-      <c r="S36" s="2">
-        <v>1</v>
-      </c>
-      <c r="T36" s="2">
-        <v>1</v>
-      </c>
-      <c r="U36" s="2">
-        <v>1</v>
+      <c r="Q36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U36" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="V36" s="2">
         <v>1</v>
       </c>
-      <c r="W36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="X36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="2" t="s">
-        <v>0</v>
+      <c r="W36" s="2">
+        <v>1</v>
+      </c>
+      <c r="X36" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>1</v>
       </c>
       <c r="Z36" s="2">
         <v>1</v>
@@ -7271,14 +8606,14 @@
       <c r="AA36" s="2">
         <v>1</v>
       </c>
-      <c r="AB36" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC36" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD36" s="2">
-        <v>1</v>
+      <c r="AB36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AE36" s="2">
         <v>1</v>
@@ -7292,29 +8627,29 @@
       <c r="AH36" s="2">
         <v>1</v>
       </c>
-      <c r="AI36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM36" s="2" t="s">
-        <v>0</v>
+      <c r="AI36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM36" s="2">
+        <v>1</v>
       </c>
       <c r="AN36" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AO36" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP36" s="2">
-        <v>1</v>
+      <c r="AO36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP36" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AQ36" s="2" t="s">
         <v>0</v>
@@ -7325,11 +8660,11 @@
       <c r="AS36" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AT36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU36" s="2" t="s">
-        <v>0</v>
+      <c r="AT36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU36" s="2">
+        <v>1</v>
       </c>
       <c r="AV36" s="2" t="s">
         <v>0</v>
@@ -7364,26 +8699,26 @@
       <c r="BF36" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BG36" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH36" s="2">
-        <v>1</v>
-      </c>
-      <c r="BI36" s="2">
-        <v>3</v>
-      </c>
-      <c r="BJ36" s="2">
-        <v>3</v>
-      </c>
-      <c r="BK36" s="2">
-        <v>3</v>
+      <c r="BG36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK36" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="BL36" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BM36" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BN36" s="2">
         <v>3</v>
@@ -7403,8 +8738,44 @@
       <c r="BS36" s="2">
         <v>3</v>
       </c>
+      <c r="BT36" s="2">
+        <v>3</v>
+      </c>
+      <c r="BU36" s="2">
+        <v>3</v>
+      </c>
+      <c r="BV36" s="2">
+        <v>3</v>
+      </c>
+      <c r="BW36" s="2">
+        <v>3</v>
+      </c>
+      <c r="BX36" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="37" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H37" s="2" t="s">
         <v>0</v>
       </c>
@@ -7435,38 +8806,38 @@
       <c r="Q37" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="R37" s="2">
-        <v>1</v>
-      </c>
-      <c r="S37" s="2">
-        <v>1</v>
-      </c>
-      <c r="T37" s="2">
-        <v>1</v>
-      </c>
-      <c r="U37" s="2">
-        <v>1</v>
-      </c>
-      <c r="V37" s="2">
-        <v>1</v>
+      <c r="R37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V37" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="W37" s="2">
         <v>1</v>
       </c>
-      <c r="X37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="2" t="s">
-        <v>0</v>
+      <c r="X37" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB37" s="2">
+        <v>1</v>
       </c>
       <c r="AC37" s="2" t="s">
         <v>0</v>
@@ -7504,11 +8875,11 @@
       <c r="AN37" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AO37" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP37" s="2">
-        <v>1</v>
+      <c r="AO37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP37" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AQ37" s="2" t="s">
         <v>0</v>
@@ -7519,11 +8890,11 @@
       <c r="AS37" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AT37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU37" s="2" t="s">
-        <v>0</v>
+      <c r="AT37" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU37" s="2">
+        <v>1</v>
       </c>
       <c r="AV37" s="2" t="s">
         <v>0</v>
@@ -7534,11 +8905,11 @@
       <c r="AX37" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AY37" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ37" s="2">
-        <v>1</v>
+      <c r="AY37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ37" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="BA37" s="2" t="s">
         <v>0</v>
@@ -7549,20 +8920,20 @@
       <c r="BC37" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BD37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE37" s="2" t="s">
-        <v>0</v>
+      <c r="BD37" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE37" s="2">
+        <v>1</v>
       </c>
       <c r="BF37" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BG37" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH37" s="2">
-        <v>1</v>
+      <c r="BG37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH37" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="BI37" s="2" t="s">
         <v>0</v>
@@ -7570,20 +8941,20 @@
       <c r="BJ37" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BK37" s="2">
-        <v>3</v>
+      <c r="BK37" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="BL37" s="2">
-        <v>3</v>
-      </c>
-      <c r="BM37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN37" s="2">
-        <v>3</v>
-      </c>
-      <c r="BO37" s="2">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="BM37" s="2">
+        <v>1</v>
+      </c>
+      <c r="BN37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO37" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="BP37" s="2">
         <v>3</v>
@@ -7591,14 +8962,50 @@
       <c r="BQ37" s="2">
         <v>3</v>
       </c>
-      <c r="BR37" s="2">
-        <v>3</v>
+      <c r="BR37" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="BS37" s="2">
         <v>3</v>
       </c>
+      <c r="BT37" s="2">
+        <v>3</v>
+      </c>
+      <c r="BU37" s="2">
+        <v>3</v>
+      </c>
+      <c r="BV37" s="2">
+        <v>3</v>
+      </c>
+      <c r="BW37" s="2">
+        <v>3</v>
+      </c>
+      <c r="BX37" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="38" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H38" s="2" t="s">
         <v>0</v>
       </c>
@@ -7632,38 +9039,38 @@
       <c r="R38" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S38" s="2">
-        <v>1</v>
-      </c>
-      <c r="T38" s="2">
-        <v>1</v>
-      </c>
-      <c r="U38" s="2">
-        <v>1</v>
-      </c>
-      <c r="V38" s="2">
-        <v>1</v>
-      </c>
-      <c r="W38" s="2">
-        <v>1</v>
+      <c r="S38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W38" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="X38" s="2">
         <v>1</v>
       </c>
-      <c r="Y38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="2" t="s">
-        <v>0</v>
+      <c r="Y38" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC38" s="2">
+        <v>1</v>
       </c>
       <c r="AD38" s="2" t="s">
         <v>0</v>
@@ -7698,11 +9105,11 @@
       <c r="AN38" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AO38" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP38" s="2">
-        <v>1</v>
+      <c r="AO38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP38" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AQ38" s="2" t="s">
         <v>0</v>
@@ -7713,11 +9120,11 @@
       <c r="AS38" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AT38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU38" s="2" t="s">
-        <v>0</v>
+      <c r="AT38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU38" s="2">
+        <v>1</v>
       </c>
       <c r="AV38" s="2" t="s">
         <v>0</v>
@@ -7728,11 +9135,11 @@
       <c r="AX38" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AY38" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ38" s="2">
-        <v>1</v>
+      <c r="AY38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ38" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="BA38" s="2" t="s">
         <v>0</v>
@@ -7743,20 +9150,20 @@
       <c r="BC38" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BD38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE38" s="2" t="s">
-        <v>0</v>
+      <c r="BD38" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE38" s="2">
+        <v>1</v>
       </c>
       <c r="BF38" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BG38" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH38" s="2">
-        <v>1</v>
+      <c r="BG38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH38" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="BI38" s="2" t="s">
         <v>0</v>
@@ -7767,11 +9174,11 @@
       <c r="BK38" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BL38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BM38" s="2" t="s">
-        <v>0</v>
+      <c r="BL38" s="2">
+        <v>1</v>
+      </c>
+      <c r="BM38" s="2">
+        <v>1</v>
       </c>
       <c r="BN38" s="2" t="s">
         <v>0</v>
@@ -7782,17 +9189,53 @@
       <c r="BP38" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BQ38" s="2">
-        <v>3</v>
-      </c>
-      <c r="BR38" s="2">
-        <v>3</v>
-      </c>
-      <c r="BS38" s="2">
+      <c r="BQ38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV38" s="2">
+        <v>3</v>
+      </c>
+      <c r="BW38" s="2">
+        <v>3</v>
+      </c>
+      <c r="BX38" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H39" s="2" t="s">
         <v>0</v>
       </c>
@@ -7829,20 +9272,20 @@
       <c r="S39" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="T39" s="2">
-        <v>1</v>
-      </c>
-      <c r="U39" s="2">
-        <v>1</v>
-      </c>
-      <c r="V39" s="2">
-        <v>1</v>
-      </c>
-      <c r="W39" s="2">
-        <v>1</v>
-      </c>
-      <c r="X39" s="2">
-        <v>1</v>
+      <c r="T39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X39" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="Y39" s="2">
         <v>1</v>
@@ -7871,32 +9314,32 @@
       <c r="AG39" s="2">
         <v>1</v>
       </c>
-      <c r="AH39" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI39" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ39" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK39" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL39" s="2" t="s">
-        <v>0</v>
+      <c r="AH39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL39" s="2">
+        <v>1</v>
       </c>
       <c r="AM39" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AN39" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO39" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP39" s="2">
-        <v>1</v>
+      <c r="AN39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP39" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AQ39" s="2" t="s">
         <v>0</v>
@@ -7904,14 +9347,14 @@
       <c r="AR39" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AS39" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT39" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU39" s="2" t="s">
-        <v>0</v>
+      <c r="AS39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU39" s="2">
+        <v>1</v>
       </c>
       <c r="AV39" s="2" t="s">
         <v>0</v>
@@ -7922,11 +9365,11 @@
       <c r="AX39" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AY39" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ39" s="2">
-        <v>1</v>
+      <c r="AY39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ39" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="BA39" s="2" t="s">
         <v>0</v>
@@ -7937,20 +9380,20 @@
       <c r="BC39" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BD39" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE39" s="2" t="s">
-        <v>0</v>
+      <c r="BD39" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE39" s="2">
+        <v>1</v>
       </c>
       <c r="BF39" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BG39" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH39" s="2">
-        <v>1</v>
+      <c r="BG39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH39" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="BI39" s="2" t="s">
         <v>0</v>
@@ -7961,11 +9404,11 @@
       <c r="BK39" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BL39" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BM39" s="2" t="s">
-        <v>0</v>
+      <c r="BL39" s="2">
+        <v>1</v>
+      </c>
+      <c r="BM39" s="2">
+        <v>1</v>
       </c>
       <c r="BN39" s="2" t="s">
         <v>0</v>
@@ -7979,14 +9422,50 @@
       <c r="BQ39" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BR39" s="2">
-        <v>3</v>
-      </c>
-      <c r="BS39" s="2">
+      <c r="BR39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW39" s="2">
+        <v>3</v>
+      </c>
+      <c r="BX39" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H40" s="2" t="s">
         <v>0</v>
       </c>
@@ -8032,20 +9511,20 @@
       <c r="V40" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="W40" s="2">
-        <v>1</v>
-      </c>
-      <c r="X40" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y40" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z40" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA40" s="2">
-        <v>1</v>
+      <c r="W40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AB40" s="2">
         <v>1</v>
@@ -8068,44 +9547,44 @@
       <c r="AH40" s="2">
         <v>1</v>
       </c>
-      <c r="AI40" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ40" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK40" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL40" s="2" t="s">
-        <v>0</v>
+      <c r="AI40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL40" s="2">
+        <v>1</v>
       </c>
       <c r="AM40" s="2">
         <v>1</v>
       </c>
-      <c r="AN40" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO40" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP40" s="2">
-        <v>1</v>
+      <c r="AN40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP40" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AQ40" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AR40" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS40" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT40" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU40" s="2" t="s">
-        <v>0</v>
+      <c r="AR40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU40" s="2">
+        <v>1</v>
       </c>
       <c r="AV40" s="2" t="s">
         <v>0</v>
@@ -8116,11 +9595,11 @@
       <c r="AX40" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AY40" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ40" s="2">
-        <v>1</v>
+      <c r="AY40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ40" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="BA40" s="2" t="s">
         <v>0</v>
@@ -8131,20 +9610,20 @@
       <c r="BC40" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BD40" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE40" s="2" t="s">
-        <v>0</v>
+      <c r="BD40" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE40" s="2">
+        <v>1</v>
       </c>
       <c r="BF40" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BG40" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH40" s="2">
-        <v>1</v>
+      <c r="BG40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH40" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="BI40" s="2" t="s">
         <v>0</v>
@@ -8155,11 +9634,11 @@
       <c r="BK40" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BL40" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BM40" s="2" t="s">
-        <v>0</v>
+      <c r="BL40" s="2">
+        <v>1</v>
+      </c>
+      <c r="BM40" s="2">
+        <v>1</v>
       </c>
       <c r="BN40" s="2" t="s">
         <v>0</v>
@@ -8176,11 +9655,47 @@
       <c r="BR40" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BS40" s="2">
+      <c r="BS40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX40" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H41" s="2" t="s">
         <v>0</v>
       </c>
@@ -8232,20 +9747,20 @@
       <c r="X41" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Y41" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z41" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA41" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB41" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC41" s="2">
-        <v>1</v>
+      <c r="Y41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AD41" s="2">
         <v>1</v>
@@ -8265,11 +9780,11 @@
       <c r="AI41" s="2">
         <v>1</v>
       </c>
-      <c r="AJ41" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK41" s="2" t="s">
-        <v>0</v>
+      <c r="AJ41" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK41" s="2">
+        <v>1</v>
       </c>
       <c r="AL41" s="2">
         <v>1</v>
@@ -8280,11 +9795,11 @@
       <c r="AN41" s="2">
         <v>1</v>
       </c>
-      <c r="AO41" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP41" s="2">
-        <v>1</v>
+      <c r="AO41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP41" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AQ41" s="2">
         <v>1</v>
@@ -8296,23 +9811,23 @@
         <v>1</v>
       </c>
       <c r="AT41" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU41" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV41" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW41" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX41" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY41" s="2">
         <v>7</v>
       </c>
-      <c r="AU41" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV41" s="2">
-        <v>1</v>
-      </c>
-      <c r="AW41" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX41" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY41" s="2">
-        <v>1</v>
-      </c>
       <c r="AZ41" s="2">
         <v>1</v>
       </c>
@@ -8340,20 +9855,20 @@
       <c r="BH41" s="2">
         <v>1</v>
       </c>
-      <c r="BI41" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ41" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK41" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL41" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BM41" s="2" t="s">
-        <v>0</v>
+      <c r="BI41" s="2">
+        <v>1</v>
+      </c>
+      <c r="BJ41" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK41" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL41" s="2">
+        <v>1</v>
+      </c>
+      <c r="BM41" s="2">
+        <v>1</v>
       </c>
       <c r="BN41" s="2" t="s">
         <v>0</v>
@@ -8373,8 +9888,44 @@
       <c r="BS41" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="BT41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX41" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H42" s="2" t="s">
         <v>0</v>
       </c>
@@ -8432,20 +9983,20 @@
       <c r="Z42" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AA42" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB42" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC42" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD42" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE42" s="2">
-        <v>1</v>
+      <c r="AA42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AF42" s="2">
         <v>1</v>
@@ -8534,20 +10085,20 @@
       <c r="BH42" s="2">
         <v>1</v>
       </c>
-      <c r="BI42" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ42" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK42" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL42" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BM42" s="2" t="s">
-        <v>0</v>
+      <c r="BI42" s="2">
+        <v>1</v>
+      </c>
+      <c r="BJ42" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK42" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL42" s="2">
+        <v>1</v>
+      </c>
+      <c r="BM42" s="2">
+        <v>1</v>
       </c>
       <c r="BN42" s="2" t="s">
         <v>0</v>
@@ -8567,8 +10118,44 @@
       <c r="BS42" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="BT42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX42" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H43" s="2" t="s">
         <v>0</v>
       </c>
@@ -8632,20 +10219,20 @@
       <c r="AB43" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AC43" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD43" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE43" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF43" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG43" s="2">
-        <v>1</v>
+      <c r="AC43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AH43" s="2">
         <v>1</v>
@@ -8728,20 +10315,20 @@
       <c r="BH43" s="2">
         <v>1</v>
       </c>
-      <c r="BI43" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ43" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK43" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL43" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BM43" s="2" t="s">
-        <v>0</v>
+      <c r="BI43" s="2">
+        <v>1</v>
+      </c>
+      <c r="BJ43" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK43" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL43" s="2">
+        <v>1</v>
+      </c>
+      <c r="BM43" s="2">
+        <v>1</v>
       </c>
       <c r="BN43" s="2" t="s">
         <v>0</v>
@@ -8761,8 +10348,44 @@
       <c r="BS43" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="BT43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX43" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H44" s="2" t="s">
         <v>0</v>
       </c>
@@ -8955,8 +10578,44 @@
       <c r="BS44" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="BT44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX44" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H45" s="2" t="s">
         <v>0</v>
       </c>
@@ -9149,8 +10808,44 @@
       <c r="BS45" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="BT45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX45" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H46" s="2" t="s">
         <v>0</v>
       </c>
@@ -9343,8 +11038,44 @@
       <c r="BS46" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="BT46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX46" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H47" s="2" t="s">
         <v>0</v>
       </c>
@@ -9537,8 +11268,44 @@
       <c r="BS47" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="BT47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX47" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="8:71" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H48" s="2" t="s">
         <v>0</v>
       </c>
@@ -9731,19 +11498,709 @@
       <c r="BS48" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="BT48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX48" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="71:71" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR49" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="BS49" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="BT49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX49" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="71:71" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR50" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="BS50" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="BT50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX50" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="71:71" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR51" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="BS51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX51" s="2" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Array Disposition.xlsx
+++ b/Array Disposition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\ProjetThreeJsRPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940448E9-5F1A-4D2F-972A-6E8852E2ED59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622D4344-8B72-423D-9CC9-6EC46807DAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CFCBE3DC-0C8F-43AA-BA81-4CE92429DD23}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3093" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3435" uniqueCount="4">
   <si>
     <t>.</t>
   </si>
@@ -412,7 +412,7 @@
   <dimension ref="A1:CP51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CM3" sqref="CM3"/>
+      <selection activeCell="BY10" sqref="BY10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,6 +933,60 @@
       <c r="BX2" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="BY2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP2" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1163,6 +1217,60 @@
       <c r="BX3" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="BY3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP3" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1393,6 +1501,60 @@
       <c r="BX4" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="BY4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP4" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1623,6 +1785,60 @@
       <c r="BX5" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="BY5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP5" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -1853,6 +2069,60 @@
       <c r="BX6" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="BY6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP6" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -2083,6 +2353,60 @@
       <c r="BX7" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="BY7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP7" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -2313,6 +2637,60 @@
       <c r="BX8" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="BY8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP8" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -2543,6 +2921,60 @@
       <c r="BX9" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="BY9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP9" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -2773,6 +3205,60 @@
       <c r="BX10" s="2">
         <v>3</v>
       </c>
+      <c r="BY10" s="2">
+        <v>3</v>
+      </c>
+      <c r="BZ10" s="2">
+        <v>3</v>
+      </c>
+      <c r="CA10" s="2">
+        <v>3</v>
+      </c>
+      <c r="CB10" s="2">
+        <v>3</v>
+      </c>
+      <c r="CC10" s="2">
+        <v>3</v>
+      </c>
+      <c r="CD10" s="2">
+        <v>3</v>
+      </c>
+      <c r="CE10" s="2">
+        <v>3</v>
+      </c>
+      <c r="CF10" s="2">
+        <v>3</v>
+      </c>
+      <c r="CG10" s="2">
+        <v>3</v>
+      </c>
+      <c r="CH10" s="2">
+        <v>3</v>
+      </c>
+      <c r="CI10" s="2">
+        <v>3</v>
+      </c>
+      <c r="CJ10" s="2">
+        <v>3</v>
+      </c>
+      <c r="CK10" s="2">
+        <v>3</v>
+      </c>
+      <c r="CL10" s="2">
+        <v>3</v>
+      </c>
+      <c r="CM10" s="2">
+        <v>3</v>
+      </c>
+      <c r="CN10" s="2">
+        <v>3</v>
+      </c>
+      <c r="CO10" s="2">
+        <v>3</v>
+      </c>
+      <c r="CP10" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -3003,6 +3489,60 @@
       <c r="BX11" s="2">
         <v>3</v>
       </c>
+      <c r="BY11" s="2">
+        <v>3</v>
+      </c>
+      <c r="BZ11" s="2">
+        <v>3</v>
+      </c>
+      <c r="CA11" s="2">
+        <v>3</v>
+      </c>
+      <c r="CB11" s="2">
+        <v>3</v>
+      </c>
+      <c r="CC11" s="2">
+        <v>3</v>
+      </c>
+      <c r="CD11" s="2">
+        <v>3</v>
+      </c>
+      <c r="CE11" s="2">
+        <v>3</v>
+      </c>
+      <c r="CF11" s="2">
+        <v>3</v>
+      </c>
+      <c r="CG11" s="2">
+        <v>3</v>
+      </c>
+      <c r="CH11" s="2">
+        <v>3</v>
+      </c>
+      <c r="CI11" s="2">
+        <v>3</v>
+      </c>
+      <c r="CJ11" s="2">
+        <v>3</v>
+      </c>
+      <c r="CK11" s="2">
+        <v>3</v>
+      </c>
+      <c r="CL11" s="2">
+        <v>3</v>
+      </c>
+      <c r="CM11" s="2">
+        <v>3</v>
+      </c>
+      <c r="CN11" s="2">
+        <v>3</v>
+      </c>
+      <c r="CO11" s="2">
+        <v>3</v>
+      </c>
+      <c r="CP11" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -3233,6 +3773,60 @@
       <c r="BX12" s="2">
         <v>3</v>
       </c>
+      <c r="BY12" s="2">
+        <v>3</v>
+      </c>
+      <c r="BZ12" s="2">
+        <v>3</v>
+      </c>
+      <c r="CA12" s="2">
+        <v>3</v>
+      </c>
+      <c r="CB12" s="2">
+        <v>3</v>
+      </c>
+      <c r="CC12" s="2">
+        <v>3</v>
+      </c>
+      <c r="CD12" s="2">
+        <v>3</v>
+      </c>
+      <c r="CE12" s="2">
+        <v>3</v>
+      </c>
+      <c r="CF12" s="2">
+        <v>3</v>
+      </c>
+      <c r="CG12" s="2">
+        <v>3</v>
+      </c>
+      <c r="CH12" s="2">
+        <v>3</v>
+      </c>
+      <c r="CI12" s="2">
+        <v>3</v>
+      </c>
+      <c r="CJ12" s="2">
+        <v>3</v>
+      </c>
+      <c r="CK12" s="2">
+        <v>3</v>
+      </c>
+      <c r="CL12" s="2">
+        <v>3</v>
+      </c>
+      <c r="CM12" s="2">
+        <v>3</v>
+      </c>
+      <c r="CN12" s="2">
+        <v>3</v>
+      </c>
+      <c r="CO12" s="2">
+        <v>3</v>
+      </c>
+      <c r="CP12" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -3463,6 +4057,60 @@
       <c r="BX13" s="2">
         <v>3</v>
       </c>
+      <c r="BY13" s="2">
+        <v>3</v>
+      </c>
+      <c r="BZ13" s="2">
+        <v>3</v>
+      </c>
+      <c r="CA13" s="2">
+        <v>3</v>
+      </c>
+      <c r="CB13" s="2">
+        <v>3</v>
+      </c>
+      <c r="CC13" s="2">
+        <v>3</v>
+      </c>
+      <c r="CD13" s="2">
+        <v>3</v>
+      </c>
+      <c r="CE13" s="2">
+        <v>3</v>
+      </c>
+      <c r="CF13" s="2">
+        <v>3</v>
+      </c>
+      <c r="CG13" s="2">
+        <v>3</v>
+      </c>
+      <c r="CH13" s="2">
+        <v>3</v>
+      </c>
+      <c r="CI13" s="2">
+        <v>3</v>
+      </c>
+      <c r="CJ13" s="2">
+        <v>3</v>
+      </c>
+      <c r="CK13" s="2">
+        <v>3</v>
+      </c>
+      <c r="CL13" s="2">
+        <v>3</v>
+      </c>
+      <c r="CM13" s="2">
+        <v>3</v>
+      </c>
+      <c r="CN13" s="2">
+        <v>3</v>
+      </c>
+      <c r="CO13" s="2">
+        <v>3</v>
+      </c>
+      <c r="CP13" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -3693,6 +4341,60 @@
       <c r="BX14" s="2">
         <v>3</v>
       </c>
+      <c r="BY14" s="2">
+        <v>3</v>
+      </c>
+      <c r="BZ14" s="2">
+        <v>3</v>
+      </c>
+      <c r="CA14" s="2">
+        <v>3</v>
+      </c>
+      <c r="CB14" s="2">
+        <v>3</v>
+      </c>
+      <c r="CC14" s="2">
+        <v>3</v>
+      </c>
+      <c r="CD14" s="2">
+        <v>3</v>
+      </c>
+      <c r="CE14" s="2">
+        <v>3</v>
+      </c>
+      <c r="CF14" s="2">
+        <v>3</v>
+      </c>
+      <c r="CG14" s="2">
+        <v>3</v>
+      </c>
+      <c r="CH14" s="2">
+        <v>3</v>
+      </c>
+      <c r="CI14" s="2">
+        <v>3</v>
+      </c>
+      <c r="CJ14" s="2">
+        <v>3</v>
+      </c>
+      <c r="CK14" s="2">
+        <v>3</v>
+      </c>
+      <c r="CL14" s="2">
+        <v>3</v>
+      </c>
+      <c r="CM14" s="2">
+        <v>3</v>
+      </c>
+      <c r="CN14" s="2">
+        <v>3</v>
+      </c>
+      <c r="CO14" s="2">
+        <v>3</v>
+      </c>
+      <c r="CP14" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -3923,6 +4625,60 @@
       <c r="BX15" s="2">
         <v>3</v>
       </c>
+      <c r="BY15" s="2">
+        <v>3</v>
+      </c>
+      <c r="BZ15" s="2">
+        <v>3</v>
+      </c>
+      <c r="CA15" s="2">
+        <v>3</v>
+      </c>
+      <c r="CB15" s="2">
+        <v>3</v>
+      </c>
+      <c r="CC15" s="2">
+        <v>3</v>
+      </c>
+      <c r="CD15" s="2">
+        <v>3</v>
+      </c>
+      <c r="CE15" s="2">
+        <v>3</v>
+      </c>
+      <c r="CF15" s="2">
+        <v>3</v>
+      </c>
+      <c r="CG15" s="2">
+        <v>3</v>
+      </c>
+      <c r="CH15" s="2">
+        <v>3</v>
+      </c>
+      <c r="CI15" s="2">
+        <v>3</v>
+      </c>
+      <c r="CJ15" s="2">
+        <v>3</v>
+      </c>
+      <c r="CK15" s="2">
+        <v>3</v>
+      </c>
+      <c r="CL15" s="2">
+        <v>3</v>
+      </c>
+      <c r="CM15" s="2">
+        <v>3</v>
+      </c>
+      <c r="CN15" s="2">
+        <v>3</v>
+      </c>
+      <c r="CO15" s="2">
+        <v>3</v>
+      </c>
+      <c r="CP15" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -4153,8 +4909,62 @@
       <c r="BX16" s="2">
         <v>3</v>
       </c>
+      <c r="BY16" s="2">
+        <v>3</v>
+      </c>
+      <c r="BZ16" s="2">
+        <v>3</v>
+      </c>
+      <c r="CA16" s="2">
+        <v>3</v>
+      </c>
+      <c r="CB16" s="2">
+        <v>3</v>
+      </c>
+      <c r="CC16" s="2">
+        <v>3</v>
+      </c>
+      <c r="CD16" s="2">
+        <v>3</v>
+      </c>
+      <c r="CE16" s="2">
+        <v>3</v>
+      </c>
+      <c r="CF16" s="2">
+        <v>3</v>
+      </c>
+      <c r="CG16" s="2">
+        <v>3</v>
+      </c>
+      <c r="CH16" s="2">
+        <v>3</v>
+      </c>
+      <c r="CI16" s="2">
+        <v>3</v>
+      </c>
+      <c r="CJ16" s="2">
+        <v>3</v>
+      </c>
+      <c r="CK16" s="2">
+        <v>3</v>
+      </c>
+      <c r="CL16" s="2">
+        <v>3</v>
+      </c>
+      <c r="CM16" s="2">
+        <v>3</v>
+      </c>
+      <c r="CN16" s="2">
+        <v>3</v>
+      </c>
+      <c r="CO16" s="2">
+        <v>3</v>
+      </c>
+      <c r="CP16" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="17" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
@@ -4383,8 +5193,62 @@
       <c r="BX17" s="2">
         <v>3</v>
       </c>
+      <c r="BY17" s="2">
+        <v>3</v>
+      </c>
+      <c r="BZ17" s="2">
+        <v>3</v>
+      </c>
+      <c r="CA17" s="2">
+        <v>3</v>
+      </c>
+      <c r="CB17" s="2">
+        <v>3</v>
+      </c>
+      <c r="CC17" s="2">
+        <v>3</v>
+      </c>
+      <c r="CD17" s="2">
+        <v>3</v>
+      </c>
+      <c r="CE17" s="2">
+        <v>3</v>
+      </c>
+      <c r="CF17" s="2">
+        <v>3</v>
+      </c>
+      <c r="CG17" s="2">
+        <v>3</v>
+      </c>
+      <c r="CH17" s="2">
+        <v>3</v>
+      </c>
+      <c r="CI17" s="2">
+        <v>3</v>
+      </c>
+      <c r="CJ17" s="2">
+        <v>3</v>
+      </c>
+      <c r="CK17" s="2">
+        <v>3</v>
+      </c>
+      <c r="CL17" s="2">
+        <v>3</v>
+      </c>
+      <c r="CM17" s="2">
+        <v>3</v>
+      </c>
+      <c r="CN17" s="2">
+        <v>3</v>
+      </c>
+      <c r="CO17" s="2">
+        <v>3</v>
+      </c>
+      <c r="CP17" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="18" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
@@ -4613,8 +5477,62 @@
       <c r="BX18" s="2">
         <v>3</v>
       </c>
+      <c r="BY18" s="2">
+        <v>3</v>
+      </c>
+      <c r="BZ18" s="2">
+        <v>3</v>
+      </c>
+      <c r="CA18" s="2">
+        <v>3</v>
+      </c>
+      <c r="CB18" s="2">
+        <v>3</v>
+      </c>
+      <c r="CC18" s="2">
+        <v>3</v>
+      </c>
+      <c r="CD18" s="2">
+        <v>3</v>
+      </c>
+      <c r="CE18" s="2">
+        <v>3</v>
+      </c>
+      <c r="CF18" s="2">
+        <v>3</v>
+      </c>
+      <c r="CG18" s="2">
+        <v>3</v>
+      </c>
+      <c r="CH18" s="2">
+        <v>3</v>
+      </c>
+      <c r="CI18" s="2">
+        <v>3</v>
+      </c>
+      <c r="CJ18" s="2">
+        <v>3</v>
+      </c>
+      <c r="CK18" s="2">
+        <v>3</v>
+      </c>
+      <c r="CL18" s="2">
+        <v>3</v>
+      </c>
+      <c r="CM18" s="2">
+        <v>3</v>
+      </c>
+      <c r="CN18" s="2">
+        <v>3</v>
+      </c>
+      <c r="CO18" s="2">
+        <v>3</v>
+      </c>
+      <c r="CP18" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="19" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>0</v>
       </c>
@@ -4843,8 +5761,62 @@
       <c r="BX19" s="2">
         <v>3</v>
       </c>
+      <c r="BY19" s="2">
+        <v>3</v>
+      </c>
+      <c r="BZ19" s="2">
+        <v>3</v>
+      </c>
+      <c r="CA19" s="2">
+        <v>3</v>
+      </c>
+      <c r="CB19" s="2">
+        <v>3</v>
+      </c>
+      <c r="CC19" s="2">
+        <v>3</v>
+      </c>
+      <c r="CD19" s="2">
+        <v>3</v>
+      </c>
+      <c r="CE19" s="2">
+        <v>3</v>
+      </c>
+      <c r="CF19" s="2">
+        <v>3</v>
+      </c>
+      <c r="CG19" s="2">
+        <v>3</v>
+      </c>
+      <c r="CH19" s="2">
+        <v>3</v>
+      </c>
+      <c r="CI19" s="2">
+        <v>3</v>
+      </c>
+      <c r="CJ19" s="2">
+        <v>3</v>
+      </c>
+      <c r="CK19" s="2">
+        <v>3</v>
+      </c>
+      <c r="CL19" s="2">
+        <v>3</v>
+      </c>
+      <c r="CM19" s="2">
+        <v>3</v>
+      </c>
+      <c r="CN19" s="2">
+        <v>3</v>
+      </c>
+      <c r="CO19" s="2">
+        <v>3</v>
+      </c>
+      <c r="CP19" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="20" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
@@ -5073,8 +6045,62 @@
       <c r="BX20" s="2">
         <v>3</v>
       </c>
+      <c r="BY20" s="2">
+        <v>3</v>
+      </c>
+      <c r="BZ20" s="2">
+        <v>3</v>
+      </c>
+      <c r="CA20" s="2">
+        <v>3</v>
+      </c>
+      <c r="CB20" s="2">
+        <v>3</v>
+      </c>
+      <c r="CC20" s="2">
+        <v>3</v>
+      </c>
+      <c r="CD20" s="2">
+        <v>3</v>
+      </c>
+      <c r="CE20" s="2">
+        <v>3</v>
+      </c>
+      <c r="CF20" s="2">
+        <v>3</v>
+      </c>
+      <c r="CG20" s="2">
+        <v>3</v>
+      </c>
+      <c r="CH20" s="2">
+        <v>3</v>
+      </c>
+      <c r="CI20" s="2">
+        <v>3</v>
+      </c>
+      <c r="CJ20" s="2">
+        <v>3</v>
+      </c>
+      <c r="CK20" s="2">
+        <v>3</v>
+      </c>
+      <c r="CL20" s="2">
+        <v>3</v>
+      </c>
+      <c r="CM20" s="2">
+        <v>3</v>
+      </c>
+      <c r="CN20" s="2">
+        <v>3</v>
+      </c>
+      <c r="CO20" s="2">
+        <v>3</v>
+      </c>
+      <c r="CP20" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="21" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
@@ -5303,8 +6329,62 @@
       <c r="BX21" s="2">
         <v>3</v>
       </c>
+      <c r="BY21" s="2">
+        <v>3</v>
+      </c>
+      <c r="BZ21" s="2">
+        <v>3</v>
+      </c>
+      <c r="CA21" s="2">
+        <v>3</v>
+      </c>
+      <c r="CB21" s="2">
+        <v>3</v>
+      </c>
+      <c r="CC21" s="2">
+        <v>3</v>
+      </c>
+      <c r="CD21" s="2">
+        <v>3</v>
+      </c>
+      <c r="CE21" s="2">
+        <v>3</v>
+      </c>
+      <c r="CF21" s="2">
+        <v>3</v>
+      </c>
+      <c r="CG21" s="2">
+        <v>3</v>
+      </c>
+      <c r="CH21" s="2">
+        <v>3</v>
+      </c>
+      <c r="CI21" s="2">
+        <v>3</v>
+      </c>
+      <c r="CJ21" s="2">
+        <v>3</v>
+      </c>
+      <c r="CK21" s="2">
+        <v>3</v>
+      </c>
+      <c r="CL21" s="2">
+        <v>3</v>
+      </c>
+      <c r="CM21" s="2">
+        <v>3</v>
+      </c>
+      <c r="CN21" s="2">
+        <v>3</v>
+      </c>
+      <c r="CO21" s="2">
+        <v>3</v>
+      </c>
+      <c r="CP21" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="22" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>0</v>
       </c>
@@ -5533,8 +6613,62 @@
       <c r="BX22" s="2">
         <v>3</v>
       </c>
+      <c r="BY22" s="2">
+        <v>3</v>
+      </c>
+      <c r="BZ22" s="2">
+        <v>3</v>
+      </c>
+      <c r="CA22" s="2">
+        <v>3</v>
+      </c>
+      <c r="CB22" s="2">
+        <v>3</v>
+      </c>
+      <c r="CC22" s="2">
+        <v>3</v>
+      </c>
+      <c r="CD22" s="2">
+        <v>3</v>
+      </c>
+      <c r="CE22" s="2">
+        <v>3</v>
+      </c>
+      <c r="CF22" s="2">
+        <v>3</v>
+      </c>
+      <c r="CG22" s="2">
+        <v>3</v>
+      </c>
+      <c r="CH22" s="2">
+        <v>3</v>
+      </c>
+      <c r="CI22" s="2">
+        <v>3</v>
+      </c>
+      <c r="CJ22" s="2">
+        <v>3</v>
+      </c>
+      <c r="CK22" s="2">
+        <v>3</v>
+      </c>
+      <c r="CL22" s="2">
+        <v>3</v>
+      </c>
+      <c r="CM22" s="2">
+        <v>3</v>
+      </c>
+      <c r="CN22" s="2">
+        <v>3</v>
+      </c>
+      <c r="CO22" s="2">
+        <v>3</v>
+      </c>
+      <c r="CP22" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="23" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
@@ -5763,8 +6897,62 @@
       <c r="BX23" s="2">
         <v>3</v>
       </c>
+      <c r="BY23" s="2">
+        <v>3</v>
+      </c>
+      <c r="BZ23" s="2">
+        <v>3</v>
+      </c>
+      <c r="CA23" s="2">
+        <v>3</v>
+      </c>
+      <c r="CB23" s="2">
+        <v>3</v>
+      </c>
+      <c r="CC23" s="2">
+        <v>3</v>
+      </c>
+      <c r="CD23" s="2">
+        <v>3</v>
+      </c>
+      <c r="CE23" s="2">
+        <v>3</v>
+      </c>
+      <c r="CF23" s="2">
+        <v>3</v>
+      </c>
+      <c r="CG23" s="2">
+        <v>3</v>
+      </c>
+      <c r="CH23" s="2">
+        <v>3</v>
+      </c>
+      <c r="CI23" s="2">
+        <v>3</v>
+      </c>
+      <c r="CJ23" s="2">
+        <v>3</v>
+      </c>
+      <c r="CK23" s="2">
+        <v>3</v>
+      </c>
+      <c r="CL23" s="2">
+        <v>3</v>
+      </c>
+      <c r="CM23" s="2">
+        <v>3</v>
+      </c>
+      <c r="CN23" s="2">
+        <v>3</v>
+      </c>
+      <c r="CO23" s="2">
+        <v>3</v>
+      </c>
+      <c r="CP23" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="24" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
@@ -5993,8 +7181,62 @@
       <c r="BX24" s="2">
         <v>3</v>
       </c>
+      <c r="BY24" s="2">
+        <v>3</v>
+      </c>
+      <c r="BZ24" s="2">
+        <v>3</v>
+      </c>
+      <c r="CA24" s="2">
+        <v>3</v>
+      </c>
+      <c r="CB24" s="2">
+        <v>3</v>
+      </c>
+      <c r="CC24" s="2">
+        <v>3</v>
+      </c>
+      <c r="CD24" s="2">
+        <v>3</v>
+      </c>
+      <c r="CE24" s="2">
+        <v>3</v>
+      </c>
+      <c r="CF24" s="2">
+        <v>3</v>
+      </c>
+      <c r="CG24" s="2">
+        <v>3</v>
+      </c>
+      <c r="CH24" s="2">
+        <v>3</v>
+      </c>
+      <c r="CI24" s="2">
+        <v>3</v>
+      </c>
+      <c r="CJ24" s="2">
+        <v>3</v>
+      </c>
+      <c r="CK24" s="2">
+        <v>3</v>
+      </c>
+      <c r="CL24" s="2">
+        <v>3</v>
+      </c>
+      <c r="CM24" s="2">
+        <v>3</v>
+      </c>
+      <c r="CN24" s="2">
+        <v>3</v>
+      </c>
+      <c r="CO24" s="2">
+        <v>3</v>
+      </c>
+      <c r="CP24" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="25" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
@@ -6223,8 +7465,62 @@
       <c r="BX25" s="2">
         <v>3</v>
       </c>
+      <c r="BY25" s="2">
+        <v>3</v>
+      </c>
+      <c r="BZ25" s="2">
+        <v>3</v>
+      </c>
+      <c r="CA25" s="2">
+        <v>3</v>
+      </c>
+      <c r="CB25" s="2">
+        <v>3</v>
+      </c>
+      <c r="CC25" s="2">
+        <v>3</v>
+      </c>
+      <c r="CD25" s="2">
+        <v>3</v>
+      </c>
+      <c r="CE25" s="2">
+        <v>3</v>
+      </c>
+      <c r="CF25" s="2">
+        <v>3</v>
+      </c>
+      <c r="CG25" s="2">
+        <v>3</v>
+      </c>
+      <c r="CH25" s="2">
+        <v>3</v>
+      </c>
+      <c r="CI25" s="2">
+        <v>3</v>
+      </c>
+      <c r="CJ25" s="2">
+        <v>3</v>
+      </c>
+      <c r="CK25" s="2">
+        <v>3</v>
+      </c>
+      <c r="CL25" s="2">
+        <v>3</v>
+      </c>
+      <c r="CM25" s="2">
+        <v>3</v>
+      </c>
+      <c r="CN25" s="2">
+        <v>3</v>
+      </c>
+      <c r="CO25" s="2">
+        <v>3</v>
+      </c>
+      <c r="CP25" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="26" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
@@ -6453,8 +7749,62 @@
       <c r="BX26" s="2">
         <v>3</v>
       </c>
+      <c r="BY26" s="2">
+        <v>3</v>
+      </c>
+      <c r="BZ26" s="2">
+        <v>3</v>
+      </c>
+      <c r="CA26" s="2">
+        <v>3</v>
+      </c>
+      <c r="CB26" s="2">
+        <v>3</v>
+      </c>
+      <c r="CC26" s="2">
+        <v>3</v>
+      </c>
+      <c r="CD26" s="2">
+        <v>3</v>
+      </c>
+      <c r="CE26" s="2">
+        <v>3</v>
+      </c>
+      <c r="CF26" s="2">
+        <v>3</v>
+      </c>
+      <c r="CG26" s="2">
+        <v>3</v>
+      </c>
+      <c r="CH26" s="2">
+        <v>3</v>
+      </c>
+      <c r="CI26" s="2">
+        <v>3</v>
+      </c>
+      <c r="CJ26" s="2">
+        <v>3</v>
+      </c>
+      <c r="CK26" s="2">
+        <v>3</v>
+      </c>
+      <c r="CL26" s="2">
+        <v>3</v>
+      </c>
+      <c r="CM26" s="2">
+        <v>3</v>
+      </c>
+      <c r="CN26" s="2">
+        <v>3</v>
+      </c>
+      <c r="CO26" s="2">
+        <v>3</v>
+      </c>
+      <c r="CP26" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="27" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>0</v>
       </c>
@@ -6683,8 +8033,62 @@
       <c r="BX27" s="2">
         <v>3</v>
       </c>
+      <c r="BY27" s="2">
+        <v>3</v>
+      </c>
+      <c r="BZ27" s="2">
+        <v>3</v>
+      </c>
+      <c r="CA27" s="2">
+        <v>3</v>
+      </c>
+      <c r="CB27" s="2">
+        <v>3</v>
+      </c>
+      <c r="CC27" s="2">
+        <v>3</v>
+      </c>
+      <c r="CD27" s="2">
+        <v>3</v>
+      </c>
+      <c r="CE27" s="2">
+        <v>3</v>
+      </c>
+      <c r="CF27" s="2">
+        <v>3</v>
+      </c>
+      <c r="CG27" s="2">
+        <v>3</v>
+      </c>
+      <c r="CH27" s="2">
+        <v>3</v>
+      </c>
+      <c r="CI27" s="2">
+        <v>3</v>
+      </c>
+      <c r="CJ27" s="2">
+        <v>3</v>
+      </c>
+      <c r="CK27" s="2">
+        <v>3</v>
+      </c>
+      <c r="CL27" s="2">
+        <v>3</v>
+      </c>
+      <c r="CM27" s="2">
+        <v>3</v>
+      </c>
+      <c r="CN27" s="2">
+        <v>3</v>
+      </c>
+      <c r="CO27" s="2">
+        <v>3</v>
+      </c>
+      <c r="CP27" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="28" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>0</v>
       </c>
@@ -6913,8 +8317,62 @@
       <c r="BX28" s="2">
         <v>3</v>
       </c>
+      <c r="BY28" s="2">
+        <v>3</v>
+      </c>
+      <c r="BZ28" s="2">
+        <v>3</v>
+      </c>
+      <c r="CA28" s="2">
+        <v>3</v>
+      </c>
+      <c r="CB28" s="2">
+        <v>3</v>
+      </c>
+      <c r="CC28" s="2">
+        <v>3</v>
+      </c>
+      <c r="CD28" s="2">
+        <v>3</v>
+      </c>
+      <c r="CE28" s="2">
+        <v>3</v>
+      </c>
+      <c r="CF28" s="2">
+        <v>3</v>
+      </c>
+      <c r="CG28" s="2">
+        <v>3</v>
+      </c>
+      <c r="CH28" s="2">
+        <v>3</v>
+      </c>
+      <c r="CI28" s="2">
+        <v>3</v>
+      </c>
+      <c r="CJ28" s="2">
+        <v>3</v>
+      </c>
+      <c r="CK28" s="2">
+        <v>3</v>
+      </c>
+      <c r="CL28" s="2">
+        <v>3</v>
+      </c>
+      <c r="CM28" s="2">
+        <v>3</v>
+      </c>
+      <c r="CN28" s="2">
+        <v>3</v>
+      </c>
+      <c r="CO28" s="2">
+        <v>3</v>
+      </c>
+      <c r="CP28" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="29" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>0</v>
       </c>
@@ -7143,8 +8601,62 @@
       <c r="BX29" s="2">
         <v>3</v>
       </c>
+      <c r="BY29" s="2">
+        <v>3</v>
+      </c>
+      <c r="BZ29" s="2">
+        <v>3</v>
+      </c>
+      <c r="CA29" s="2">
+        <v>3</v>
+      </c>
+      <c r="CB29" s="2">
+        <v>3</v>
+      </c>
+      <c r="CC29" s="2">
+        <v>3</v>
+      </c>
+      <c r="CD29" s="2">
+        <v>3</v>
+      </c>
+      <c r="CE29" s="2">
+        <v>3</v>
+      </c>
+      <c r="CF29" s="2">
+        <v>3</v>
+      </c>
+      <c r="CG29" s="2">
+        <v>3</v>
+      </c>
+      <c r="CH29" s="2">
+        <v>3</v>
+      </c>
+      <c r="CI29" s="2">
+        <v>3</v>
+      </c>
+      <c r="CJ29" s="2">
+        <v>3</v>
+      </c>
+      <c r="CK29" s="2">
+        <v>3</v>
+      </c>
+      <c r="CL29" s="2">
+        <v>3</v>
+      </c>
+      <c r="CM29" s="2">
+        <v>3</v>
+      </c>
+      <c r="CN29" s="2">
+        <v>3</v>
+      </c>
+      <c r="CO29" s="2">
+        <v>3</v>
+      </c>
+      <c r="CP29" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="30" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
@@ -7373,8 +8885,62 @@
       <c r="BX30" s="2">
         <v>3</v>
       </c>
+      <c r="BY30" s="2">
+        <v>3</v>
+      </c>
+      <c r="BZ30" s="2">
+        <v>3</v>
+      </c>
+      <c r="CA30" s="2">
+        <v>3</v>
+      </c>
+      <c r="CB30" s="2">
+        <v>3</v>
+      </c>
+      <c r="CC30" s="2">
+        <v>3</v>
+      </c>
+      <c r="CD30" s="2">
+        <v>3</v>
+      </c>
+      <c r="CE30" s="2">
+        <v>3</v>
+      </c>
+      <c r="CF30" s="2">
+        <v>3</v>
+      </c>
+      <c r="CG30" s="2">
+        <v>3</v>
+      </c>
+      <c r="CH30" s="2">
+        <v>3</v>
+      </c>
+      <c r="CI30" s="2">
+        <v>3</v>
+      </c>
+      <c r="CJ30" s="2">
+        <v>3</v>
+      </c>
+      <c r="CK30" s="2">
+        <v>3</v>
+      </c>
+      <c r="CL30" s="2">
+        <v>3</v>
+      </c>
+      <c r="CM30" s="2">
+        <v>3</v>
+      </c>
+      <c r="CN30" s="2">
+        <v>3</v>
+      </c>
+      <c r="CO30" s="2">
+        <v>3</v>
+      </c>
+      <c r="CP30" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="31" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>0</v>
       </c>
@@ -7603,8 +9169,62 @@
       <c r="BX31" s="2">
         <v>3</v>
       </c>
+      <c r="BY31" s="2">
+        <v>3</v>
+      </c>
+      <c r="BZ31" s="2">
+        <v>3</v>
+      </c>
+      <c r="CA31" s="2">
+        <v>3</v>
+      </c>
+      <c r="CB31" s="2">
+        <v>3</v>
+      </c>
+      <c r="CC31" s="2">
+        <v>3</v>
+      </c>
+      <c r="CD31" s="2">
+        <v>3</v>
+      </c>
+      <c r="CE31" s="2">
+        <v>3</v>
+      </c>
+      <c r="CF31" s="2">
+        <v>3</v>
+      </c>
+      <c r="CG31" s="2">
+        <v>3</v>
+      </c>
+      <c r="CH31" s="2">
+        <v>3</v>
+      </c>
+      <c r="CI31" s="2">
+        <v>3</v>
+      </c>
+      <c r="CJ31" s="2">
+        <v>3</v>
+      </c>
+      <c r="CK31" s="2">
+        <v>3</v>
+      </c>
+      <c r="CL31" s="2">
+        <v>3</v>
+      </c>
+      <c r="CM31" s="2">
+        <v>3</v>
+      </c>
+      <c r="CN31" s="2">
+        <v>3</v>
+      </c>
+      <c r="CO31" s="2">
+        <v>3</v>
+      </c>
+      <c r="CP31" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="32" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>0</v>
       </c>
@@ -7833,8 +9453,62 @@
       <c r="BX32" s="2">
         <v>3</v>
       </c>
+      <c r="BY32" s="2">
+        <v>3</v>
+      </c>
+      <c r="BZ32" s="2">
+        <v>3</v>
+      </c>
+      <c r="CA32" s="2">
+        <v>3</v>
+      </c>
+      <c r="CB32" s="2">
+        <v>3</v>
+      </c>
+      <c r="CC32" s="2">
+        <v>3</v>
+      </c>
+      <c r="CD32" s="2">
+        <v>3</v>
+      </c>
+      <c r="CE32" s="2">
+        <v>3</v>
+      </c>
+      <c r="CF32" s="2">
+        <v>3</v>
+      </c>
+      <c r="CG32" s="2">
+        <v>3</v>
+      </c>
+      <c r="CH32" s="2">
+        <v>3</v>
+      </c>
+      <c r="CI32" s="2">
+        <v>3</v>
+      </c>
+      <c r="CJ32" s="2">
+        <v>3</v>
+      </c>
+      <c r="CK32" s="2">
+        <v>3</v>
+      </c>
+      <c r="CL32" s="2">
+        <v>3</v>
+      </c>
+      <c r="CM32" s="2">
+        <v>3</v>
+      </c>
+      <c r="CN32" s="2">
+        <v>3</v>
+      </c>
+      <c r="CO32" s="2">
+        <v>3</v>
+      </c>
+      <c r="CP32" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="33" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>0</v>
       </c>
@@ -8063,8 +9737,62 @@
       <c r="BX33" s="2">
         <v>3</v>
       </c>
+      <c r="BY33" s="2">
+        <v>3</v>
+      </c>
+      <c r="BZ33" s="2">
+        <v>3</v>
+      </c>
+      <c r="CA33" s="2">
+        <v>3</v>
+      </c>
+      <c r="CB33" s="2">
+        <v>3</v>
+      </c>
+      <c r="CC33" s="2">
+        <v>3</v>
+      </c>
+      <c r="CD33" s="2">
+        <v>3</v>
+      </c>
+      <c r="CE33" s="2">
+        <v>3</v>
+      </c>
+      <c r="CF33" s="2">
+        <v>3</v>
+      </c>
+      <c r="CG33" s="2">
+        <v>3</v>
+      </c>
+      <c r="CH33" s="2">
+        <v>3</v>
+      </c>
+      <c r="CI33" s="2">
+        <v>3</v>
+      </c>
+      <c r="CJ33" s="2">
+        <v>3</v>
+      </c>
+      <c r="CK33" s="2">
+        <v>3</v>
+      </c>
+      <c r="CL33" s="2">
+        <v>3</v>
+      </c>
+      <c r="CM33" s="2">
+        <v>3</v>
+      </c>
+      <c r="CN33" s="2">
+        <v>3</v>
+      </c>
+      <c r="CO33" s="2">
+        <v>3</v>
+      </c>
+      <c r="CP33" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="34" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>0</v>
       </c>
@@ -8293,8 +10021,62 @@
       <c r="BX34" s="2">
         <v>3</v>
       </c>
+      <c r="BY34" s="2">
+        <v>3</v>
+      </c>
+      <c r="BZ34" s="2">
+        <v>3</v>
+      </c>
+      <c r="CA34" s="2">
+        <v>3</v>
+      </c>
+      <c r="CB34" s="2">
+        <v>3</v>
+      </c>
+      <c r="CC34" s="2">
+        <v>3</v>
+      </c>
+      <c r="CD34" s="2">
+        <v>3</v>
+      </c>
+      <c r="CE34" s="2">
+        <v>3</v>
+      </c>
+      <c r="CF34" s="2">
+        <v>3</v>
+      </c>
+      <c r="CG34" s="2">
+        <v>3</v>
+      </c>
+      <c r="CH34" s="2">
+        <v>3</v>
+      </c>
+      <c r="CI34" s="2">
+        <v>3</v>
+      </c>
+      <c r="CJ34" s="2">
+        <v>3</v>
+      </c>
+      <c r="CK34" s="2">
+        <v>3</v>
+      </c>
+      <c r="CL34" s="2">
+        <v>3</v>
+      </c>
+      <c r="CM34" s="2">
+        <v>3</v>
+      </c>
+      <c r="CN34" s="2">
+        <v>3</v>
+      </c>
+      <c r="CO34" s="2">
+        <v>3</v>
+      </c>
+      <c r="CP34" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="35" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>0</v>
       </c>
@@ -8523,8 +10305,62 @@
       <c r="BX35" s="2">
         <v>3</v>
       </c>
+      <c r="BY35" s="2">
+        <v>3</v>
+      </c>
+      <c r="BZ35" s="2">
+        <v>3</v>
+      </c>
+      <c r="CA35" s="2">
+        <v>3</v>
+      </c>
+      <c r="CB35" s="2">
+        <v>3</v>
+      </c>
+      <c r="CC35" s="2">
+        <v>3</v>
+      </c>
+      <c r="CD35" s="2">
+        <v>3</v>
+      </c>
+      <c r="CE35" s="2">
+        <v>3</v>
+      </c>
+      <c r="CF35" s="2">
+        <v>3</v>
+      </c>
+      <c r="CG35" s="2">
+        <v>3</v>
+      </c>
+      <c r="CH35" s="2">
+        <v>3</v>
+      </c>
+      <c r="CI35" s="2">
+        <v>3</v>
+      </c>
+      <c r="CJ35" s="2">
+        <v>3</v>
+      </c>
+      <c r="CK35" s="2">
+        <v>3</v>
+      </c>
+      <c r="CL35" s="2">
+        <v>3</v>
+      </c>
+      <c r="CM35" s="2">
+        <v>3</v>
+      </c>
+      <c r="CN35" s="2">
+        <v>3</v>
+      </c>
+      <c r="CO35" s="2">
+        <v>3</v>
+      </c>
+      <c r="CP35" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="36" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>0</v>
       </c>
@@ -8753,8 +10589,62 @@
       <c r="BX36" s="2">
         <v>3</v>
       </c>
+      <c r="BY36" s="2">
+        <v>3</v>
+      </c>
+      <c r="BZ36" s="2">
+        <v>3</v>
+      </c>
+      <c r="CA36" s="2">
+        <v>3</v>
+      </c>
+      <c r="CB36" s="2">
+        <v>3</v>
+      </c>
+      <c r="CC36" s="2">
+        <v>3</v>
+      </c>
+      <c r="CD36" s="2">
+        <v>3</v>
+      </c>
+      <c r="CE36" s="2">
+        <v>3</v>
+      </c>
+      <c r="CF36" s="2">
+        <v>3</v>
+      </c>
+      <c r="CG36" s="2">
+        <v>3</v>
+      </c>
+      <c r="CH36" s="2">
+        <v>3</v>
+      </c>
+      <c r="CI36" s="2">
+        <v>3</v>
+      </c>
+      <c r="CJ36" s="2">
+        <v>3</v>
+      </c>
+      <c r="CK36" s="2">
+        <v>3</v>
+      </c>
+      <c r="CL36" s="2">
+        <v>3</v>
+      </c>
+      <c r="CM36" s="2">
+        <v>3</v>
+      </c>
+      <c r="CN36" s="2">
+        <v>3</v>
+      </c>
+      <c r="CO36" s="2">
+        <v>3</v>
+      </c>
+      <c r="CP36" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="37" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>0</v>
       </c>
@@ -8983,8 +10873,62 @@
       <c r="BX37" s="2">
         <v>3</v>
       </c>
+      <c r="BY37" s="2">
+        <v>3</v>
+      </c>
+      <c r="BZ37" s="2">
+        <v>3</v>
+      </c>
+      <c r="CA37" s="2">
+        <v>3</v>
+      </c>
+      <c r="CB37" s="2">
+        <v>3</v>
+      </c>
+      <c r="CC37" s="2">
+        <v>3</v>
+      </c>
+      <c r="CD37" s="2">
+        <v>3</v>
+      </c>
+      <c r="CE37" s="2">
+        <v>3</v>
+      </c>
+      <c r="CF37" s="2">
+        <v>3</v>
+      </c>
+      <c r="CG37" s="2">
+        <v>3</v>
+      </c>
+      <c r="CH37" s="2">
+        <v>3</v>
+      </c>
+      <c r="CI37" s="2">
+        <v>3</v>
+      </c>
+      <c r="CJ37" s="2">
+        <v>3</v>
+      </c>
+      <c r="CK37" s="2">
+        <v>3</v>
+      </c>
+      <c r="CL37" s="2">
+        <v>3</v>
+      </c>
+      <c r="CM37" s="2">
+        <v>3</v>
+      </c>
+      <c r="CN37" s="2">
+        <v>3</v>
+      </c>
+      <c r="CO37" s="2">
+        <v>3</v>
+      </c>
+      <c r="CP37" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="38" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>0</v>
       </c>
@@ -9213,8 +11157,62 @@
       <c r="BX38" s="2">
         <v>3</v>
       </c>
+      <c r="BY38" s="2">
+        <v>3</v>
+      </c>
+      <c r="BZ38" s="2">
+        <v>3</v>
+      </c>
+      <c r="CA38" s="2">
+        <v>3</v>
+      </c>
+      <c r="CB38" s="2">
+        <v>3</v>
+      </c>
+      <c r="CC38" s="2">
+        <v>3</v>
+      </c>
+      <c r="CD38" s="2">
+        <v>3</v>
+      </c>
+      <c r="CE38" s="2">
+        <v>3</v>
+      </c>
+      <c r="CF38" s="2">
+        <v>3</v>
+      </c>
+      <c r="CG38" s="2">
+        <v>3</v>
+      </c>
+      <c r="CH38" s="2">
+        <v>3</v>
+      </c>
+      <c r="CI38" s="2">
+        <v>3</v>
+      </c>
+      <c r="CJ38" s="2">
+        <v>3</v>
+      </c>
+      <c r="CK38" s="2">
+        <v>3</v>
+      </c>
+      <c r="CL38" s="2">
+        <v>3</v>
+      </c>
+      <c r="CM38" s="2">
+        <v>3</v>
+      </c>
+      <c r="CN38" s="2">
+        <v>3</v>
+      </c>
+      <c r="CO38" s="2">
+        <v>3</v>
+      </c>
+      <c r="CP38" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="39" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>0</v>
       </c>
@@ -9443,8 +11441,62 @@
       <c r="BX39" s="2">
         <v>3</v>
       </c>
+      <c r="BY39" s="2">
+        <v>3</v>
+      </c>
+      <c r="BZ39" s="2">
+        <v>3</v>
+      </c>
+      <c r="CA39" s="2">
+        <v>3</v>
+      </c>
+      <c r="CB39" s="2">
+        <v>3</v>
+      </c>
+      <c r="CC39" s="2">
+        <v>3</v>
+      </c>
+      <c r="CD39" s="2">
+        <v>3</v>
+      </c>
+      <c r="CE39" s="2">
+        <v>3</v>
+      </c>
+      <c r="CF39" s="2">
+        <v>3</v>
+      </c>
+      <c r="CG39" s="2">
+        <v>3</v>
+      </c>
+      <c r="CH39" s="2">
+        <v>3</v>
+      </c>
+      <c r="CI39" s="2">
+        <v>3</v>
+      </c>
+      <c r="CJ39" s="2">
+        <v>3</v>
+      </c>
+      <c r="CK39" s="2">
+        <v>3</v>
+      </c>
+      <c r="CL39" s="2">
+        <v>3</v>
+      </c>
+      <c r="CM39" s="2">
+        <v>3</v>
+      </c>
+      <c r="CN39" s="2">
+        <v>3</v>
+      </c>
+      <c r="CO39" s="2">
+        <v>3</v>
+      </c>
+      <c r="CP39" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="40" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>0</v>
       </c>
@@ -9673,8 +11725,62 @@
       <c r="BX40" s="2">
         <v>3</v>
       </c>
+      <c r="BY40" s="2">
+        <v>3</v>
+      </c>
+      <c r="BZ40" s="2">
+        <v>3</v>
+      </c>
+      <c r="CA40" s="2">
+        <v>3</v>
+      </c>
+      <c r="CB40" s="2">
+        <v>3</v>
+      </c>
+      <c r="CC40" s="2">
+        <v>3</v>
+      </c>
+      <c r="CD40" s="2">
+        <v>3</v>
+      </c>
+      <c r="CE40" s="2">
+        <v>3</v>
+      </c>
+      <c r="CF40" s="2">
+        <v>3</v>
+      </c>
+      <c r="CG40" s="2">
+        <v>3</v>
+      </c>
+      <c r="CH40" s="2">
+        <v>3</v>
+      </c>
+      <c r="CI40" s="2">
+        <v>3</v>
+      </c>
+      <c r="CJ40" s="2">
+        <v>3</v>
+      </c>
+      <c r="CK40" s="2">
+        <v>3</v>
+      </c>
+      <c r="CL40" s="2">
+        <v>3</v>
+      </c>
+      <c r="CM40" s="2">
+        <v>3</v>
+      </c>
+      <c r="CN40" s="2">
+        <v>3</v>
+      </c>
+      <c r="CO40" s="2">
+        <v>3</v>
+      </c>
+      <c r="CP40" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="41" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>0</v>
       </c>
@@ -9903,8 +12009,62 @@
       <c r="BX41" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="BY41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP41" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>0</v>
       </c>
@@ -10133,8 +12293,62 @@
       <c r="BX42" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="BY42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP42" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>0</v>
       </c>
@@ -10363,8 +12577,62 @@
       <c r="BX43" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="BY43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP43" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>0</v>
       </c>
@@ -10593,8 +12861,62 @@
       <c r="BX44" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="BY44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP44" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>0</v>
       </c>
@@ -10823,8 +13145,62 @@
       <c r="BX45" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="BY45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP45" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>0</v>
       </c>
@@ -11053,8 +13429,62 @@
       <c r="BX46" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="BY46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP46" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>0</v>
       </c>
@@ -11283,8 +13713,62 @@
       <c r="BX47" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="BY47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP47" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>0</v>
       </c>
@@ -11513,8 +13997,62 @@
       <c r="BX48" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="BY48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP48" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>0</v>
       </c>
@@ -11743,8 +14281,62 @@
       <c r="BX49" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="BY49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP49" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>0</v>
       </c>
@@ -11973,8 +14565,62 @@
       <c r="BX50" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="BY50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP50" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>0</v>
       </c>
@@ -12201,6 +14847,60 @@
         <v>0</v>
       </c>
       <c r="BX51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP51" s="2" t="s">
         <v>0</v>
       </c>
     </row>
